--- a/public/format/format_permintaan_atk.xlsx
+++ b/public/format/format_permintaan_atk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfahm\Documents\GitHub\siporsat_v1\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC2955-70D7-4439-A163-5203D4C24E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E45D92C-0B0F-4432-8AF4-A4DCB10824F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2149,7 +2149,7 @@
   <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6268,7 +6268,7 @@
       <c r="I153" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Tw4yqAk2NFpJ5KU4dx/TjwFpqbxUouOdk8TznGfkTY875gFv1xzr+mgn67Ig803pYtJZKsZ0Rgb90WZBjG6Dmg==" saltValue="cG924YANOTymZCmkpk09Nw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrnKQ+fa06EiYGotr1Q22b6FRIGUQPyu5Nk7QEMQl7M90k5ViDzRKDjTg5D5KcIKjEhF8fsWF1eFsOC55dIlwQ==" saltValue="xcU5yEJRBFGfHEEpSouCfg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A5:G151" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G153">
       <sortCondition ref="E5:E151"/>
@@ -6278,6 +6278,12 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C4:I4"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1 - 10000" sqref="H6:H153" xr:uid="{B22B4A9C-92FE-4D11-9D5F-68C69E9FBC18}">
+      <formula1>1</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6288,7 +6294,7 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6416,7 +6422,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -9561,7 +9567,7 @@
       <c r="J118" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2OPuAtpNfo0CR9VzMA7XomMnGY0mKBjs7BUbG5KOcrY6KG9l8WoY4X6YP4Z4W4nMqbllBbZdlVzu4VBH0v9hsA==" saltValue="uaz+M2iTF8XLdGvajN79rQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J42p0a4dnN+2c+e/n5FgS8IBT5O4TOE139z/LF3jQtGjciB0Q7aXRc42LJhKN+EwXfaehsos4WE/QBiAx8JMJw==" saltValue="IxKeHfQmyKABSd6Tz14w0A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:J118" xr:uid="{C53612C0-DDF2-4350-AF4D-75C247024156}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
@@ -9579,6 +9585,12 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C4:I4"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1-1000" sqref="H6:H118" xr:uid="{75D680BE-DF58-4322-B1EB-3621CF4A6D68}">
+      <formula1>1</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/format/format_permintaan_atk.xlsx
+++ b/public/format/format_permintaan_atk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfahm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfahm\Documents\GitHub\siporsat_v1\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC8103C-EDD7-46BD-9441-B2BAA1BDA7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060C2D41-961D-484F-9F09-09AB3BEAE31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1952,6 +1952,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1964,21 +1975,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2295,7 +2291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A163"/>
     </sheetView>
   </sheetViews>
@@ -2315,17 +2311,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.8" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -2362,15 +2358,15 @@
         <v>506</v>
       </c>
       <c r="B4" s="18"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>504</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:10" ht="26.4">
       <c r="A5" s="4" t="s">
@@ -4530,19 +4526,19 @@
       <c r="A84" s="7">
         <v>79</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B84" s="17">
         <v>370810</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="D84" s="27">
+      <c r="D84" s="17">
         <v>1010301006</v>
       </c>
-      <c r="E84" s="27" t="s">
+      <c r="E84" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F84" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G84" s="7"/>
@@ -4665,19 +4661,19 @@
       <c r="A89" s="7">
         <v>84</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B89" s="17">
         <v>370811</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D89" s="17">
         <v>1010301006</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E89" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="F89" s="29" t="s">
+      <c r="F89" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G89" s="7"/>
@@ -4885,19 +4881,19 @@
       <c r="A97" s="7">
         <v>92</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97" s="17">
         <v>370812</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="D97" s="27">
+      <c r="D97" s="17">
         <v>1010301006</v>
       </c>
-      <c r="E97" s="27" t="s">
+      <c r="E97" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="F97" s="29" t="s">
+      <c r="F97" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G97" s="7"/>
@@ -4941,19 +4937,19 @@
       <c r="A99" s="7">
         <v>94</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="17">
         <v>370813</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="D99" s="27">
+      <c r="D99" s="17">
         <v>1010301006</v>
       </c>
-      <c r="E99" s="27" t="s">
+      <c r="E99" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="F99" s="29" t="s">
+      <c r="F99" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G99" s="7"/>
@@ -5670,19 +5666,19 @@
       <c r="A126" s="7">
         <v>121</v>
       </c>
-      <c r="B126" s="27">
+      <c r="B126" s="17">
         <v>370814</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="C126" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="D126" s="27">
+      <c r="D126" s="17">
         <v>1010301999</v>
       </c>
-      <c r="E126" s="27" t="s">
+      <c r="E126" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="F126" s="29" t="s">
+      <c r="F126" s="10" t="s">
         <v>83</v>
       </c>
       <c r="G126" s="7"/>
@@ -5886,19 +5882,19 @@
       <c r="A134" s="7">
         <v>129</v>
       </c>
-      <c r="B134" s="27">
+      <c r="B134" s="17">
         <v>370815</v>
       </c>
-      <c r="C134" s="28" t="s">
+      <c r="C134" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="D134" s="27">
+      <c r="D134" s="17">
         <v>1010301999</v>
       </c>
-      <c r="E134" s="27" t="s">
+      <c r="E134" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="F134" s="29" t="s">
+      <c r="F134" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G134" s="7"/>
@@ -5967,19 +5963,19 @@
       <c r="A137" s="7">
         <v>132</v>
       </c>
-      <c r="B137" s="27">
+      <c r="B137" s="17">
         <v>370816</v>
       </c>
-      <c r="C137" s="28" t="s">
+      <c r="C137" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D137" s="27">
+      <c r="D137" s="17">
         <v>1010301001</v>
       </c>
-      <c r="E137" s="27" t="s">
+      <c r="E137" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="F137" s="29" t="s">
+      <c r="F137" s="10" t="s">
         <v>83</v>
       </c>
       <c r="G137" s="7"/>
@@ -6740,17 +6736,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.8" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -6787,15 +6783,15 @@
         <v>506</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>504</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:10" ht="26.4">
       <c r="A5" s="4" t="s">
@@ -7389,19 +7385,19 @@
       <c r="A26" s="7">
         <v>21</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="17">
         <v>370817</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="D26" s="27">
-        <v>1010304004</v>
-      </c>
-      <c r="E26" s="27" t="s">
+      <c r="D26" s="17">
+        <v>1010304004</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="10" t="s">
         <v>107</v>
       </c>
       <c r="G26" s="10"/>
@@ -10148,7 +10144,7 @@
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="23"/>
+    <col min="10" max="10" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:10">
@@ -10167,7 +10163,7 @@
       <c r="I3" t="s">
         <v>559</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="19" t="s">
         <v>560</v>
       </c>
     </row>
@@ -15472,213 +15468,213 @@
       </c>
     </row>
     <row r="269" spans="5:10">
-      <c r="E269" s="24">
+      <c r="E269" s="20">
         <v>370810</v>
       </c>
-      <c r="F269" s="25" t="s">
+      <c r="F269" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="G269" s="24">
+      <c r="G269" s="20">
         <v>1010301006</v>
       </c>
-      <c r="H269" s="24" t="s">
+      <c r="H269" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="I269" s="24" t="s">
+      <c r="I269" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J269" s="26" t="s">
+      <c r="J269" s="22" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="270" spans="5:10">
-      <c r="E270" s="24">
+      <c r="E270" s="20">
         <v>370811</v>
       </c>
-      <c r="F270" s="25" t="s">
+      <c r="F270" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="G270" s="24">
+      <c r="G270" s="20">
         <v>1010301006</v>
       </c>
-      <c r="H270" s="24" t="s">
+      <c r="H270" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="I270" s="24" t="s">
+      <c r="I270" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J270" s="26" t="s">
+      <c r="J270" s="22" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="271" spans="5:10">
-      <c r="E271" s="24">
+      <c r="E271" s="20">
         <v>370812</v>
       </c>
-      <c r="F271" s="25" t="s">
+      <c r="F271" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="G271" s="24">
+      <c r="G271" s="20">
         <v>1010301006</v>
       </c>
-      <c r="H271" s="24" t="s">
+      <c r="H271" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="I271" s="24" t="s">
+      <c r="I271" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J271" s="26" t="s">
+      <c r="J271" s="22" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="272" spans="5:10">
-      <c r="E272" s="24">
+      <c r="E272" s="20">
         <v>370813</v>
       </c>
-      <c r="F272" s="25" t="s">
+      <c r="F272" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="G272" s="24">
+      <c r="G272" s="20">
         <v>1010301006</v>
       </c>
-      <c r="H272" s="24" t="s">
+      <c r="H272" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="I272" s="24" t="s">
+      <c r="I272" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J272" s="26" t="s">
+      <c r="J272" s="22" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="273" spans="5:10">
-      <c r="E273" s="24">
+      <c r="E273" s="20">
         <v>370814</v>
       </c>
-      <c r="F273" s="25" t="s">
+      <c r="F273" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="G273" s="24">
+      <c r="G273" s="20">
         <v>1010301999</v>
       </c>
-      <c r="H273" s="24" t="s">
+      <c r="H273" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="I273" s="24" t="s">
+      <c r="I273" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J273" s="26" t="s">
+      <c r="J273" s="22" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="274" spans="5:10">
-      <c r="E274" s="24">
+      <c r="E274" s="20">
         <v>370815</v>
       </c>
-      <c r="F274" s="25" t="s">
+      <c r="F274" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="G274" s="24">
+      <c r="G274" s="20">
         <v>1010301999</v>
       </c>
-      <c r="H274" s="24" t="s">
+      <c r="H274" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="I274" s="24" t="s">
+      <c r="I274" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J274" s="26" t="s">
+      <c r="J274" s="22" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="275" spans="5:10">
-      <c r="E275" s="24">
+      <c r="E275" s="20">
         <v>370816</v>
       </c>
-      <c r="F275" s="25" t="s">
+      <c r="F275" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G275" s="24">
+      <c r="G275" s="20">
         <v>1010301001</v>
       </c>
-      <c r="H275" s="24" t="s">
+      <c r="H275" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="I275" s="24" t="s">
+      <c r="I275" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J275" s="26" t="s">
+      <c r="J275" s="22" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="276" spans="5:10">
-      <c r="E276" s="24">
+      <c r="E276" s="20">
         <v>370817</v>
       </c>
-      <c r="F276" s="25" t="s">
+      <c r="F276" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="G276" s="24">
-        <v>1010304004</v>
-      </c>
-      <c r="H276" s="24" t="s">
+      <c r="G276" s="20">
+        <v>1010304004</v>
+      </c>
+      <c r="H276" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="I276" s="24" t="s">
+      <c r="I276" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="J276" s="26" t="s">
+      <c r="J276" s="22" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="277" spans="5:10">
-      <c r="E277" s="30">
+      <c r="E277" s="24">
         <v>370818</v>
       </c>
-      <c r="F277" s="31" t="s">
+      <c r="F277" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="G277" s="30">
-        <v>1010304004</v>
-      </c>
-      <c r="H277" s="30" t="s">
+      <c r="G277" s="24">
+        <v>1010304004</v>
+      </c>
+      <c r="H277" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="I277" s="30" t="s">
+      <c r="I277" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="278" spans="5:10">
-      <c r="E278" s="30">
+      <c r="E278" s="24">
         <v>370819</v>
       </c>
-      <c r="F278" s="31" t="s">
+      <c r="F278" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="G278" s="30">
+      <c r="G278" s="24">
         <v>1010301001</v>
       </c>
-      <c r="H278" s="30" t="s">
+      <c r="H278" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I278" s="30" t="s">
+      <c r="I278" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="279" spans="5:10">
-      <c r="E279" s="30">
+      <c r="E279" s="24">
         <v>370820</v>
       </c>
-      <c r="F279" s="31" t="s">
+      <c r="F279" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="G279" s="30">
+      <c r="G279" s="24">
         <v>1010301006</v>
       </c>
-      <c r="H279" s="30" t="s">
+      <c r="H279" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="I279" s="30" t="s">
+      <c r="I279" s="24" t="s">
         <v>31</v>
       </c>
     </row>

--- a/public/format/format_permintaan_atk.xlsx
+++ b/public/format/format_permintaan_atk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfahm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82556CE-BB35-4272-88A1-792BAFF14636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F323A7D8-7B4F-4523-95A9-204D02BE6939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Alkom" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alkom!$A$5:$I$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alkom!$A$5:$I$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atk!$A$5:$G$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="357">
   <si>
     <t>id_atk</t>
   </si>
@@ -256,15 +256,6 @@
     <t>Map Business File F4</t>
   </si>
   <si>
-    <t>1010304004370801</t>
-  </si>
-  <si>
-    <t>1010304004370802</t>
-  </si>
-  <si>
-    <t>1010304004370800</t>
-  </si>
-  <si>
     <t>Kategori      :</t>
   </si>
   <si>
@@ -274,9 +265,6 @@
     <t>101030199937323</t>
   </si>
   <si>
-    <t>1010304004370809</t>
-  </si>
-  <si>
     <t>1010301006370810</t>
   </si>
   <si>
@@ -517,87 +505,15 @@
     <t>Tinta Brother TN3428</t>
   </si>
   <si>
-    <t>Tinta Canon 47/57 (2 BColor)</t>
-  </si>
-  <si>
-    <t>Tinta Epson 001 (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Tinta Epson 003 (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Tinta Epson 664 (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Tinta Epson 673 (6 BCMY)</t>
-  </si>
-  <si>
-    <t>Tinta HP 950/951 XL (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Tinta HP GT 53/52 (4 BCMY)</t>
-  </si>
-  <si>
     <t>Tip Ex Cair/Pentel</t>
   </si>
   <si>
     <t>Tip Ex Tombo/Correction Tape</t>
   </si>
   <si>
-    <t>Toner Canon 331 (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner Canon 790 (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner Epson Aculaser (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner HP 119A (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner HP 124A (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner HP 126A (4 BCMY)</t>
-  </si>
-  <si>
     <t>Toner HP 12A</t>
   </si>
   <si>
-    <t>Toner HP 130A (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner HP 131A (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner HP 202A (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner HP 305A (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner HP 307 (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner HP 416A (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner HP 508A (4 BCMY)</t>
-  </si>
-  <si>
-    <t>Toner HP 62 (2 BColor)</t>
-  </si>
-  <si>
-    <t>Toner HP 678 (2 BColor)</t>
-  </si>
-  <si>
-    <t>Toner HP 680 (2 BColor)</t>
-  </si>
-  <si>
-    <t>Toner HP 682 (2 BColor)</t>
-  </si>
-  <si>
     <t>USB Flash Disk 32 GB OTG</t>
   </si>
   <si>
@@ -610,27 +526,6 @@
     <t>1010304004370807</t>
   </si>
   <si>
-    <t>101030400438048</t>
-  </si>
-  <si>
-    <t>101030400437409</t>
-  </si>
-  <si>
-    <t>1010304004370817</t>
-  </si>
-  <si>
-    <t>101030400438049</t>
-  </si>
-  <si>
-    <t>101030400438050</t>
-  </si>
-  <si>
-    <t>101030400438051</t>
-  </si>
-  <si>
-    <t>101030400438052</t>
-  </si>
-  <si>
     <t>101030400437199</t>
   </si>
   <si>
@@ -646,45 +541,18 @@
     <t>101030400437214</t>
   </si>
   <si>
-    <t>101030400438053</t>
-  </si>
-  <si>
-    <t>101030400438054</t>
-  </si>
-  <si>
-    <t>101030400438055</t>
-  </si>
-  <si>
     <t>101030400437217</t>
   </si>
   <si>
     <t>101030400437218</t>
   </si>
   <si>
-    <t>101030400437400</t>
-  </si>
-  <si>
     <t>101030400437202</t>
   </si>
   <si>
-    <t>1010304004370806</t>
-  </si>
-  <si>
-    <t>101030400438056</t>
-  </si>
-  <si>
     <t>101030400437185</t>
   </si>
   <si>
-    <t>101030400438057</t>
-  </si>
-  <si>
-    <t>101030400438058</t>
-  </si>
-  <si>
-    <t>101030400438059</t>
-  </si>
-  <si>
     <t>101030400437178</t>
   </si>
   <si>
@@ -694,24 +562,12 @@
     <t>101030400437229</t>
   </si>
   <si>
-    <t>101030400438060</t>
-  </si>
-  <si>
     <t>101030400437150</t>
   </si>
   <si>
     <t>101030400437145</t>
   </si>
   <si>
-    <t>101030400437397</t>
-  </si>
-  <si>
-    <t>101030400437179</t>
-  </si>
-  <si>
-    <t>101030400437403</t>
-  </si>
-  <si>
     <t>101030400437181</t>
   </si>
   <si>
@@ -811,12 +667,6 @@
     <t>101030199938013</t>
   </si>
   <si>
-    <t>101030400438061</t>
-  </si>
-  <si>
-    <t>101030400437406</t>
-  </si>
-  <si>
     <t>101030100637064</t>
   </si>
   <si>
@@ -1087,10 +937,169 @@
     <t>Binder Clip No. 107</t>
   </si>
   <si>
-    <t>Toner Canon 830/831 (2 BColor)</t>
-  </si>
-  <si>
-    <t>Toner Canon 810/811 (2 BColor)</t>
+    <t>Tinta Canon 47/57 Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Tinta Canon 47/57 Black</t>
+  </si>
+  <si>
+    <t>Tinta Epson 001 Black</t>
+  </si>
+  <si>
+    <t>Tinta Epson 001 Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Tinta Epson 003 Black</t>
+  </si>
+  <si>
+    <t>Tinta Epson 003 Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Tinta Epson 664 Black</t>
+  </si>
+  <si>
+    <t>Tinta Epson 664 Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Tinta Epson 673 Black</t>
+  </si>
+  <si>
+    <t>Tinta Epson 673 Color (5 CMY)</t>
+  </si>
+  <si>
+    <t>Tinta HP 950/951 XL Black</t>
+  </si>
+  <si>
+    <t>Tinta HP GT 53/52 Black</t>
+  </si>
+  <si>
+    <t>Toner Canon 331 Black</t>
+  </si>
+  <si>
+    <t>Toner Canon 790 Black</t>
+  </si>
+  <si>
+    <t>Toner Canon 810/811 Black</t>
+  </si>
+  <si>
+    <t>Toner Canon 810/811 Tricolor</t>
+  </si>
+  <si>
+    <t>Toner Canon 830/831 Black</t>
+  </si>
+  <si>
+    <t>Toner Canon 830/831 Tricolor</t>
+  </si>
+  <si>
+    <t>Toner Epson Aculaser Black</t>
+  </si>
+  <si>
+    <t>Toner HP 119A Black</t>
+  </si>
+  <si>
+    <t>Toner HP 124A Black</t>
+  </si>
+  <si>
+    <t>Toner HP 126A Black</t>
+  </si>
+  <si>
+    <t>Toner HP 130A Black</t>
+  </si>
+  <si>
+    <t>Toner HP 131A Black</t>
+  </si>
+  <si>
+    <t>Toner HP 202A Black</t>
+  </si>
+  <si>
+    <t>Toner HP 305A Black</t>
+  </si>
+  <si>
+    <t>Toner HP 307 Black</t>
+  </si>
+  <si>
+    <t>Toner HP 416A Black</t>
+  </si>
+  <si>
+    <t>Toner HP 508A Black</t>
+  </si>
+  <si>
+    <t>Toner HP 62 Black</t>
+  </si>
+  <si>
+    <t>Toner HP 62 Tricolor</t>
+  </si>
+  <si>
+    <t>Toner HP 678 Black</t>
+  </si>
+  <si>
+    <t>Toner HP 678 Tricolor</t>
+  </si>
+  <si>
+    <t>Toner HP 680 Black</t>
+  </si>
+  <si>
+    <t>Toner HP 680 Tricolor</t>
+  </si>
+  <si>
+    <t>Toner HP 682 Black</t>
+  </si>
+  <si>
+    <t>Toner HP 682 Tricolor</t>
+  </si>
+  <si>
+    <t>Tinta Epson 008 Black</t>
+  </si>
+  <si>
+    <t>Tinta Epson 008 Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Tinta HP 950/951 XL Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Tinta HP GT 53/52 Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner Canon 331 Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner Canon 790 Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner Epson Aculaser Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner HP 119A Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner HP 124A Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner HP 126A Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner HP 130A Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner HP 131A Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner HP 202A Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner HP 305A Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner HP 416A Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner HP 307 Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner HP 508A Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>1010304004370850</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,6 +1261,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1600,17 +1616,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.95" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1647,15 +1663,15 @@
         <v>72</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="26.4">
       <c r="A5" s="4" t="s">
@@ -1697,13 +1713,13 @@
         <v>38000</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="D6" s="15">
         <v>1010302004</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>4</v>
@@ -1722,13 +1738,13 @@
         <v>38001</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="D7" s="15">
         <v>1010302004</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>4</v>
@@ -1747,13 +1763,13 @@
         <v>38002</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="D8" s="15">
         <v>1010302004</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>7</v>
@@ -1772,13 +1788,13 @@
         <v>38009</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D9" s="15">
         <v>1010301001</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>6</v>
@@ -1797,13 +1813,13 @@
         <v>37006</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D10" s="15">
         <v>1010301001</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>6</v>
@@ -1822,13 +1838,13 @@
         <v>38003</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="D11" s="15">
         <v>1010301001</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>6</v>
@@ -1847,13 +1863,13 @@
         <v>38004</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="D12" s="15">
         <v>1010301001</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>6</v>
@@ -1872,13 +1888,13 @@
         <v>38005</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="D13" s="15">
         <v>1010301001</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>6</v>
@@ -1897,7 +1913,7 @@
         <v>37016</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="D14" s="15">
         <v>1010301001</v>
@@ -1922,13 +1938,13 @@
         <v>38006</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="D15" s="15">
         <v>1010301001</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>6</v>
@@ -1947,13 +1963,13 @@
         <v>38007</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="D16" s="15">
         <v>1010301001</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>6</v>
@@ -1972,13 +1988,13 @@
         <v>37021</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="D17" s="15">
         <v>1010301001</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>6</v>
@@ -1997,13 +2013,13 @@
         <v>38008</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="D18" s="15">
         <v>1010301001</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>6</v>
@@ -2022,13 +2038,13 @@
         <v>37280</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="D19" s="15">
         <v>1010306010</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>13</v>
@@ -2047,13 +2063,13 @@
         <v>37282</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D20" s="15">
         <v>1010306010</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>13</v>
@@ -2072,7 +2088,7 @@
         <v>37039</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="D21" s="15">
         <v>1010301003</v>
@@ -2081,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7">
@@ -2097,16 +2113,16 @@
         <v>37027</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="D22" s="15">
         <v>1010301003</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7">
@@ -2122,16 +2138,16 @@
         <v>37028</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="D23" s="15">
         <v>1010301003</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="7">
@@ -2147,16 +2163,16 @@
         <v>37029</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="D24" s="15">
         <v>1010301003</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="7">
@@ -2172,16 +2188,16 @@
         <v>37030</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="D25" s="15">
         <v>1010301003</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="7">
@@ -2197,16 +2213,16 @@
         <v>37031</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="D26" s="15">
         <v>1010301003</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="7">
@@ -2222,16 +2238,16 @@
         <v>37042</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="D27" s="15">
         <v>1010301003</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="7">
@@ -2247,7 +2263,7 @@
         <v>370785</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="D28" s="15">
         <v>1010301003</v>
@@ -2256,7 +2272,7 @@
         <v>53</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="7">
@@ -2272,13 +2288,13 @@
         <v>38010</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="D29" s="15">
         <v>1010301999</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>11</v>
@@ -2297,13 +2313,13 @@
         <v>38011</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="D30" s="15">
         <v>1010301999</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>11</v>
@@ -2322,13 +2338,13 @@
         <v>38012</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="D31" s="15">
         <v>1010301999</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>11</v>
@@ -2347,13 +2363,13 @@
         <v>38013</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="D32" s="15">
         <v>1010301999</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>11</v>
@@ -2372,7 +2388,7 @@
         <v>37064</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="D33" s="15">
         <v>1010301006</v>
@@ -2397,7 +2413,7 @@
         <v>37083</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="D34" s="15">
         <v>1010301008</v>
@@ -2422,7 +2438,7 @@
         <v>37082</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="D35" s="15">
         <v>1010301008</v>
@@ -2447,13 +2463,13 @@
         <v>38014</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="D36" s="15">
         <v>1010301010</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>29</v>
@@ -2472,13 +2488,13 @@
         <v>38015</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="D37" s="15">
         <v>1010301010</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>29</v>
@@ -2497,13 +2513,13 @@
         <v>38016</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="D38" s="15">
         <v>1010301010</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>29</v>
@@ -2522,13 +2538,13 @@
         <v>37375</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="D39" s="15">
         <v>1010301999</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>11</v>
@@ -2547,13 +2563,13 @@
         <v>37111</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="D40" s="15">
         <v>1010301999</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>11</v>
@@ -2572,13 +2588,13 @@
         <v>37101</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="D41" s="15">
         <v>1010301013</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>4</v>
@@ -2597,13 +2613,13 @@
         <v>37100</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="D42" s="15">
         <v>1010301013</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>4</v>
@@ -2628,7 +2644,7 @@
         <v>1010302001</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>4</v>
@@ -2647,7 +2663,7 @@
         <v>37125</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="D44" s="15">
         <v>1010302001</v>
@@ -2697,7 +2713,7 @@
         <v>37122</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="D46" s="15">
         <v>1010302001</v>
@@ -2722,13 +2738,13 @@
         <v>38017</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="D47" s="15">
         <v>1010302001</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>27</v>
@@ -2772,7 +2788,7 @@
         <v>37121</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="D49" s="15">
         <v>1010302001</v>
@@ -2797,13 +2813,13 @@
         <v>38018</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="D50" s="15">
         <v>1010302001</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>27</v>
@@ -2822,7 +2838,7 @@
         <v>37135</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="D51" s="15">
         <v>1010301999</v>
@@ -2847,7 +2863,7 @@
         <v>37138</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="D52" s="15">
         <v>1010301999</v>
@@ -2872,13 +2888,13 @@
         <v>37382</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="D53" s="15">
         <v>1010301010</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>4</v>
@@ -2897,13 +2913,13 @@
         <v>37383</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="D54" s="15">
         <v>1010301010</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>4</v>
@@ -2922,13 +2938,13 @@
         <v>37384</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D55" s="15">
         <v>1010301010</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>4</v>
@@ -2947,13 +2963,13 @@
         <v>37385</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="D56" s="15">
         <v>1010301010</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>4</v>
@@ -2972,13 +2988,13 @@
         <v>370790</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="D57" s="15">
         <v>1010301010</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>4</v>
@@ -2997,13 +3013,13 @@
         <v>37386</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="D58" s="15">
         <v>1010301010</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>4</v>
@@ -3022,13 +3038,13 @@
         <v>38019</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D59" s="15">
         <v>1010301010</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>29</v>
@@ -3047,13 +3063,13 @@
         <v>38020</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="D60" s="15">
         <v>1010301010</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>29</v>
@@ -3072,13 +3088,13 @@
         <v>38021</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="D61" s="15">
         <v>1010301010</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>29</v>
@@ -3097,13 +3113,13 @@
         <v>38022</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="D62" s="15">
         <v>1010301010</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>29</v>
@@ -3122,13 +3138,13 @@
         <v>38023</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="D63" s="15">
         <v>1010301010</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>29</v>
@@ -3147,13 +3163,13 @@
         <v>38024</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="D64" s="15">
         <v>1010301010</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>29</v>
@@ -3172,13 +3188,13 @@
         <v>38025</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="D65" s="15">
         <v>1010301010</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>29</v>
@@ -3197,13 +3213,13 @@
         <v>38026</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="D66" s="15">
         <v>1010301010</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>29</v>
@@ -3222,13 +3238,13 @@
         <v>37085</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="D67" s="15">
         <v>1010301010</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>11</v>
@@ -3247,13 +3263,13 @@
         <v>37373</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="D68" s="15">
         <v>1010301010</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>11</v>
@@ -3272,13 +3288,13 @@
         <v>370810</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D69" s="15">
         <v>1010301006</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>7</v>
@@ -3297,13 +3313,13 @@
         <v>37065</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="D70" s="15">
         <v>1010301006</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>11</v>
@@ -3322,7 +3338,7 @@
         <v>37061</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D71" s="15">
         <v>1010301006</v>
@@ -3347,7 +3363,7 @@
         <v>37071</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="D72" s="15">
         <v>1010301006</v>
@@ -3372,7 +3388,7 @@
         <v>38027</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="D73" s="15">
         <v>1010301006</v>
@@ -3397,13 +3413,13 @@
         <v>370812</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="D74" s="15">
         <v>1010301006</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>6</v>
@@ -3422,13 +3438,13 @@
         <v>370813</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D75" s="15">
         <v>1010301006</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>6</v>
@@ -3447,7 +3463,7 @@
         <v>38028</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="D76" s="15">
         <v>1010301006</v>
@@ -3472,7 +3488,7 @@
         <v>38029</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="D77" s="15">
         <v>1010301006</v>
@@ -3497,13 +3513,13 @@
         <v>37063</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="D78" s="15">
         <v>1010301006</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>11</v>
@@ -3522,13 +3538,13 @@
         <v>370784</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="D79" s="15">
         <v>1010301006</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>11</v>
@@ -3547,13 +3563,13 @@
         <v>38030</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="D80" s="15">
         <v>1010301006</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>11</v>
@@ -3572,13 +3588,13 @@
         <v>38031</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="D81" s="15">
         <v>1010301006</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>4</v>
@@ -3597,13 +3613,13 @@
         <v>38032</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="D82" s="15">
         <v>1010301006</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>4</v>
@@ -3622,13 +3638,13 @@
         <v>37062</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="D83" s="15">
         <v>1010301006</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>11</v>
@@ -3647,13 +3663,13 @@
         <v>370773</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="D84" s="15">
         <v>1010301003</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>4</v>
@@ -3672,13 +3688,13 @@
         <v>370782</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="D85" s="15">
         <v>1010301003</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>4</v>
@@ -3697,13 +3713,13 @@
         <v>370774</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="D86" s="15">
         <v>1010301003</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>4</v>
@@ -3722,13 +3738,13 @@
         <v>37032</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="D87" s="15">
         <v>1010301003</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>4</v>
@@ -3747,7 +3763,7 @@
         <v>37078</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="D88" s="15">
         <v>1010301007</v>
@@ -3772,7 +3788,7 @@
         <v>37080</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="D89" s="15">
         <v>1010301007</v>
@@ -3797,13 +3813,13 @@
         <v>37081</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="D90" s="15">
         <v>1010301007</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F90" s="15" t="s">
         <v>11</v>
@@ -3822,13 +3838,13 @@
         <v>370818</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="D91" s="15">
         <v>1010301004</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>11</v>
@@ -3847,13 +3863,13 @@
         <v>38033</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="D92" s="15">
         <v>1010301004</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>11</v>
@@ -3872,13 +3888,13 @@
         <v>38034</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="D93" s="15">
         <v>1010301001</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>6</v>
@@ -3897,7 +3913,7 @@
         <v>38035</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="D94" s="15">
         <v>1010301999</v>
@@ -3906,7 +3922,7 @@
         <v>23</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G94" s="15"/>
       <c r="H94" s="7">
@@ -3922,7 +3938,7 @@
         <v>38036</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="D95" s="15">
         <v>1010301999</v>
@@ -3931,7 +3947,7 @@
         <v>21</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G95" s="15"/>
       <c r="H95" s="7">
@@ -3947,13 +3963,13 @@
         <v>38037</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="D96" s="15">
         <v>1010301999</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>13</v>
@@ -3972,7 +3988,7 @@
         <v>38038</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="D97" s="15">
         <v>1010301999</v>
@@ -3981,7 +3997,7 @@
         <v>22</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="7">
@@ -3997,7 +4013,7 @@
         <v>38039</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="D98" s="15">
         <v>1010301999</v>
@@ -4006,7 +4022,7 @@
         <v>24</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="7">
@@ -4022,7 +4038,7 @@
         <v>38040</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D99" s="15">
         <v>1010301999</v>
@@ -4031,7 +4047,7 @@
         <v>25</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G99" s="15"/>
       <c r="H99" s="7">
@@ -4047,16 +4063,16 @@
         <v>38041</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D100" s="15">
         <v>1010301999</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G100" s="15"/>
       <c r="H100" s="7">
@@ -4072,7 +4088,7 @@
         <v>370815</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D101" s="15">
         <v>1010301999</v>
@@ -4081,7 +4097,7 @@
         <v>20</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G101" s="15"/>
       <c r="H101" s="7">
@@ -4097,13 +4113,13 @@
         <v>38042</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="D102" s="15">
         <v>1010301999</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>4</v>
@@ -4122,13 +4138,13 @@
         <v>37008</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D103" s="15">
         <v>1010301001</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F103" s="15" t="s">
         <v>11</v>
@@ -4147,13 +4163,13 @@
         <v>370816</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D104" s="15">
         <v>1010301001</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>11</v>
@@ -4172,16 +4188,16 @@
         <v>37020</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="D105" s="15">
         <v>1010301001</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="7">
@@ -4197,13 +4213,13 @@
         <v>38043</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="D106" s="15">
         <v>1010301001</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F106" s="15" t="s">
         <v>4</v>
@@ -4222,16 +4238,16 @@
         <v>38044</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D107" s="15">
         <v>1010301001</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G107" s="15"/>
       <c r="H107" s="7">
@@ -4247,16 +4263,16 @@
         <v>370819</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="D108" s="15">
         <v>1010301001</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G108" s="15"/>
       <c r="H108" s="7">
@@ -4272,13 +4288,13 @@
         <v>37387</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="D109" s="15">
         <v>1010301001</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>11</v>
@@ -4297,7 +4313,7 @@
         <v>37003</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="D110" s="15">
         <v>1010301001</v>
@@ -4322,7 +4338,7 @@
         <v>37379</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="D111" s="15">
         <v>1010301999</v>
@@ -4347,13 +4363,13 @@
         <v>37099</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="D112" s="15">
         <v>1010301999</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>11</v>
@@ -4372,13 +4388,13 @@
         <v>37098</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="D113" s="15">
         <v>1010301999</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>11</v>
@@ -4397,13 +4413,13 @@
         <v>38045</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="D114" s="15">
         <v>1010301999</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>4</v>
@@ -4422,7 +4438,7 @@
         <v>38046</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="D115" s="15">
         <v>1010301999</v>
@@ -4447,13 +4463,13 @@
         <v>37323</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D116" s="15">
         <v>1010301999</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F116" s="15" t="s">
         <v>11</v>
@@ -4472,7 +4488,7 @@
         <v>37025</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="D117" s="15">
         <v>1010301999</v>
@@ -4497,13 +4513,13 @@
         <v>370805</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="D118" s="15">
         <v>1010301004</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F118" s="15" t="s">
         <v>11</v>
@@ -4522,13 +4538,13 @@
         <v>37046</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="D119" s="15">
         <v>1010301004</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>11</v>
@@ -4563,17 +4579,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53612C0-DDF2-4350-AF4D-75C247024156}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="45.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" style="9" customWidth="1"/>
@@ -4585,21 +4601,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.95" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="11">
@@ -4614,7 +4630,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
@@ -4632,15 +4648,15 @@
         <v>72</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="26.4">
       <c r="A5" s="4" t="s">
@@ -4682,7 +4698,7 @@
         <v>37239</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="D6" s="15">
         <v>1010304010</v>
@@ -4693,7 +4709,7 @@
       <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -4707,18 +4723,18 @@
         <v>38047</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="D7" s="15">
         <v>1010304004</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="7">
         <v>0</v>
       </c>
@@ -4732,18 +4748,18 @@
         <v>370807</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D8" s="15">
         <v>1010304004</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="7">
         <v>0</v>
       </c>
@@ -4754,21 +4770,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="16">
-        <v>38048</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>193</v>
+        <v>370834</v>
+      </c>
+      <c r="C9" s="15" t="str">
+        <f t="shared" ref="C9:C14" si="0">_xlfn.CONCAT(D9,B9)</f>
+        <v>1010304004370834</v>
       </c>
       <c r="D9" s="15">
         <v>1010304004</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G9" s="18"/>
       <c r="H9" s="7">
         <v>0</v>
       </c>
@@ -4779,47 +4796,48 @@
         <v>5</v>
       </c>
       <c r="B10" s="16">
-        <v>37409</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>194</v>
+        <v>370835</v>
+      </c>
+      <c r="C10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>1010304004370835</v>
       </c>
       <c r="D10" s="15">
         <v>1010304004</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="15">
         <v>6</v>
       </c>
       <c r="B11" s="16">
-        <v>370817</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>195</v>
+        <v>37407</v>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>101030400437407</v>
       </c>
       <c r="D11" s="15">
         <v>1010304004</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G11" s="18"/>
       <c r="H11" s="7">
         <v>0</v>
       </c>
@@ -4831,22 +4849,23 @@
         <v>7</v>
       </c>
       <c r="B12" s="16">
-        <v>38049</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>196</v>
+        <v>37408</v>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>101030400437408</v>
       </c>
       <c r="D12" s="15">
         <v>1010304004</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="8">
+      <c r="G12" s="18"/>
+      <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="8"/>
@@ -4857,22 +4876,23 @@
         <v>8</v>
       </c>
       <c r="B13" s="16">
-        <v>38050</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>197</v>
+        <v>370836</v>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>1010304004370836</v>
       </c>
       <c r="D13" s="15">
         <v>1010304004</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="8">
+        <v>11</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="8"/>
@@ -4883,22 +4903,23 @@
         <v>9</v>
       </c>
       <c r="B14" s="16">
-        <v>38051</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>198</v>
+        <v>370837</v>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>1010304004370837</v>
       </c>
       <c r="D14" s="15">
         <v>1010304004</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="8">
+      <c r="G14" s="18"/>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="8"/>
@@ -4909,22 +4930,22 @@
         <v>10</v>
       </c>
       <c r="B15" s="16">
-        <v>38052</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>199</v>
+        <v>370853</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>356</v>
       </c>
       <c r="D15" s="15">
         <v>1010304004</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="8">
+        <v>11</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="8"/>
@@ -4935,22 +4956,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="16">
-        <v>37199</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>200</v>
+        <v>370854</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>356</v>
       </c>
       <c r="D16" s="15">
         <v>1010304004</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="8">
+        <v>13</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="8"/>
@@ -4961,22 +4982,23 @@
         <v>12</v>
       </c>
       <c r="B17" s="16">
-        <v>37200</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>201</v>
+        <v>37166</v>
+      </c>
+      <c r="C17" s="15" t="str">
+        <f t="shared" ref="C17:C24" si="1">_xlfn.CONCAT(D17,B17)</f>
+        <v>101030400437166</v>
       </c>
       <c r="D17" s="15">
         <v>1010304004</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="8">
+      <c r="G17" s="18"/>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="8"/>
@@ -4987,22 +5009,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="16">
-        <v>37201</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>202</v>
+        <v>370838</v>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1010304004370838</v>
       </c>
       <c r="D18" s="15">
         <v>1010304004</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="8">
+        <v>13</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="8"/>
@@ -5013,22 +5036,23 @@
         <v>14</v>
       </c>
       <c r="B19" s="16">
-        <v>37156</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>203</v>
+        <v>370839</v>
+      </c>
+      <c r="C19" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1010304004370839</v>
       </c>
       <c r="D19" s="15">
         <v>1010304004</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="8">
+      <c r="G19" s="18"/>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="8"/>
@@ -5039,22 +5063,23 @@
         <v>15</v>
       </c>
       <c r="B20" s="16">
-        <v>37214</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>204</v>
+        <v>370840</v>
+      </c>
+      <c r="C20" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1010304004370840</v>
       </c>
       <c r="D20" s="15">
         <v>1010304004</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>46</v>
+        <v>311</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="8">
+        <v>13</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="8"/>
@@ -5065,22 +5090,23 @@
         <v>16</v>
       </c>
       <c r="B21" s="16">
-        <v>38053</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>205</v>
+        <v>370841</v>
+      </c>
+      <c r="C21" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1010304004370841</v>
       </c>
       <c r="D21" s="15">
         <v>1010304004</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="8">
+        <v>11</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="8"/>
@@ -5091,22 +5117,23 @@
         <v>17</v>
       </c>
       <c r="B22" s="16">
-        <v>38054</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>206</v>
+        <v>370842</v>
+      </c>
+      <c r="C22" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1010304004370842</v>
       </c>
       <c r="D22" s="15">
         <v>1010304004</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>172</v>
+        <v>341</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="8">
+      <c r="G22" s="18"/>
+      <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="8"/>
@@ -5117,22 +5144,23 @@
         <v>18</v>
       </c>
       <c r="B23" s="16">
-        <v>38061</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>260</v>
+        <v>370843</v>
+      </c>
+      <c r="C23" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1010304004370843</v>
       </c>
       <c r="D23" s="15">
         <v>1010304004</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="8">
+        <v>11</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="8"/>
@@ -5143,22 +5171,23 @@
         <v>19</v>
       </c>
       <c r="B24" s="16">
-        <v>37406</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>261</v>
+        <v>370844</v>
+      </c>
+      <c r="C24" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1010304004370844</v>
       </c>
       <c r="D24" s="15">
         <v>1010304004</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="8">
+      <c r="G24" s="18"/>
+      <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="8"/>
@@ -5169,22 +5198,22 @@
         <v>20</v>
       </c>
       <c r="B25" s="16">
-        <v>38055</v>
+        <v>37199</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="D25" s="15">
         <v>1010304004</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="8">
+        <v>11</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="8"/>
@@ -5195,22 +5224,22 @@
         <v>21</v>
       </c>
       <c r="B26" s="16">
-        <v>37217</v>
+        <v>37200</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="D26" s="15">
         <v>1010304004</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="8">
+      <c r="G26" s="18"/>
+      <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="8"/>
@@ -5221,22 +5250,22 @@
         <v>22</v>
       </c>
       <c r="B27" s="16">
-        <v>37218</v>
+        <v>37201</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="D27" s="15">
         <v>1010304004</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="8">
+      <c r="G27" s="18"/>
+      <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="8"/>
@@ -5247,22 +5276,22 @@
         <v>23</v>
       </c>
       <c r="B28" s="16">
-        <v>370800</v>
+        <v>37156</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D28" s="15">
         <v>1010304004</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="8">
+        <v>11</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="8"/>
@@ -5273,22 +5302,22 @@
         <v>24</v>
       </c>
       <c r="B29" s="16">
-        <v>37400</v>
+        <v>37214</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="D29" s="15">
         <v>1010304004</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="8">
+        <v>11</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="8"/>
@@ -5299,22 +5328,23 @@
         <v>25</v>
       </c>
       <c r="B30" s="16">
-        <v>370801</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>75</v>
+        <v>37215</v>
+      </c>
+      <c r="C30" s="15" t="str">
+        <f t="shared" ref="C30:C39" si="2">_xlfn.CONCAT(D30,B30)</f>
+        <v>101030400437215</v>
       </c>
       <c r="D30" s="15">
         <v>1010304004</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>176</v>
+        <v>314</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="8">
+        <v>11</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="8"/>
@@ -5325,22 +5355,23 @@
         <v>26</v>
       </c>
       <c r="B31" s="16">
-        <v>37202</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>211</v>
+        <v>37216</v>
+      </c>
+      <c r="C31" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>101030400437216</v>
       </c>
       <c r="D31" s="15">
         <v>1010304004</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>177</v>
+        <v>343</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="8">
+        <v>13</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="8"/>
@@ -5351,22 +5382,23 @@
         <v>27</v>
       </c>
       <c r="B32" s="16">
-        <v>370806</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>212</v>
+        <v>370845</v>
+      </c>
+      <c r="C32" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>1010304004370845</v>
       </c>
       <c r="D32" s="15">
         <v>1010304004</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="8">
+        <v>11</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="8"/>
@@ -5377,22 +5409,23 @@
         <v>28</v>
       </c>
       <c r="B33" s="16">
-        <v>38056</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>213</v>
+        <v>370846</v>
+      </c>
+      <c r="C33" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>1010304004370846</v>
       </c>
       <c r="D33" s="15">
         <v>1010304004</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>179</v>
+        <v>344</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="8">
+      <c r="G33" s="18"/>
+      <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="8"/>
@@ -5403,22 +5436,23 @@
         <v>29</v>
       </c>
       <c r="B34" s="16">
-        <v>37185</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>214</v>
+        <v>370847</v>
+      </c>
+      <c r="C34" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>1010304004370847</v>
       </c>
       <c r="D34" s="15">
         <v>1010304004</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="8">
+      <c r="G34" s="18"/>
+      <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="8"/>
@@ -5429,22 +5463,23 @@
         <v>30</v>
       </c>
       <c r="B35" s="16">
-        <v>38057</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>215</v>
+        <v>370848</v>
+      </c>
+      <c r="C35" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>1010304004370848</v>
       </c>
       <c r="D35" s="15">
         <v>1010304004</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="8">
+        <v>11</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="8"/>
@@ -5455,22 +5490,23 @@
         <v>31</v>
       </c>
       <c r="B36" s="16">
-        <v>38058</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>216</v>
+        <v>370849</v>
+      </c>
+      <c r="C36" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>1010304004370849</v>
       </c>
       <c r="D36" s="15">
         <v>1010304004</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>181</v>
+        <v>318</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="8">
+        <v>11</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="8"/>
@@ -5481,22 +5517,23 @@
         <v>32</v>
       </c>
       <c r="B37" s="16">
-        <v>38059</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>217</v>
+        <v>370850</v>
+      </c>
+      <c r="C37" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>1010304004370850</v>
       </c>
       <c r="D37" s="15">
         <v>1010304004</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>182</v>
+        <v>319</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="8">
+        <v>11</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="8"/>
@@ -5507,72 +5544,76 @@
         <v>33</v>
       </c>
       <c r="B38" s="16">
-        <v>37178</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>218</v>
+        <v>370851</v>
+      </c>
+      <c r="C38" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>1010304004370851</v>
       </c>
       <c r="D38" s="15">
         <v>1010304004</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="8">
+      <c r="G38" s="18"/>
+      <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="8"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="15">
         <v>34</v>
       </c>
       <c r="B39" s="16">
-        <v>37165</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>219</v>
+        <v>370852</v>
+      </c>
+      <c r="C39" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>1010304004370852</v>
       </c>
       <c r="D39" s="15">
         <v>1010304004</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>345</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="8">
+        <v>13</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="8"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="15">
         <v>35</v>
       </c>
       <c r="B40" s="16">
-        <v>370809</v>
+        <v>37217</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="D40" s="15">
         <v>1010304004</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="8">
+        <v>11</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="8"/>
@@ -5583,22 +5624,22 @@
         <v>36</v>
       </c>
       <c r="B41" s="16">
-        <v>37229</v>
+        <v>37218</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="D41" s="15">
         <v>1010304004</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="8">
+      <c r="G41" s="18"/>
+      <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="8"/>
@@ -5609,22 +5650,23 @@
         <v>37</v>
       </c>
       <c r="B42" s="16">
-        <v>38060</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>221</v>
+        <v>37219</v>
+      </c>
+      <c r="C42" s="15" t="str">
+        <f t="shared" ref="C42:C47" si="3">_xlfn.CONCAT(D42,B42)</f>
+        <v>101030400437219</v>
       </c>
       <c r="D42" s="15">
         <v>1010304004</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="8">
+        <v>11</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="8"/>
@@ -5635,22 +5677,23 @@
         <v>38</v>
       </c>
       <c r="B43" s="16">
-        <v>37150</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>222</v>
+        <v>37220</v>
+      </c>
+      <c r="C43" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>101030400437220</v>
       </c>
       <c r="D43" s="15">
         <v>1010304004</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="8">
+        <v>13</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="8"/>
@@ -5661,22 +5704,23 @@
         <v>39</v>
       </c>
       <c r="B44" s="16">
-        <v>37145</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>223</v>
+        <v>37398</v>
+      </c>
+      <c r="C44" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>101030400437398</v>
       </c>
       <c r="D44" s="15">
         <v>1010304004</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="8">
+      <c r="G44" s="18"/>
+      <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="8"/>
@@ -5687,22 +5731,23 @@
         <v>40</v>
       </c>
       <c r="B45" s="16">
-        <v>370802</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>76</v>
+        <v>37399</v>
+      </c>
+      <c r="C45" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>101030400437399</v>
       </c>
       <c r="D45" s="15">
         <v>1010304004</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>185</v>
+        <v>347</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="8">
+      <c r="G45" s="18"/>
+      <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="8"/>
@@ -5713,22 +5758,23 @@
         <v>41</v>
       </c>
       <c r="B46" s="16">
-        <v>37397</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>224</v>
+        <v>37221</v>
+      </c>
+      <c r="C46" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>101030400437221</v>
       </c>
       <c r="D46" s="15">
         <v>1010304004</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>186</v>
+        <v>323</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="8">
+        <v>11</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="8"/>
@@ -5739,21 +5785,22 @@
         <v>42</v>
       </c>
       <c r="B47" s="16">
-        <v>37179</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>225</v>
+        <v>37222</v>
+      </c>
+      <c r="C47" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>101030400437222</v>
       </c>
       <c r="D47" s="15">
         <v>1010304004</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="15"/>
+      <c r="G47" s="18"/>
       <c r="H47" s="7">
         <v>0</v>
       </c>
@@ -5765,21 +5812,21 @@
         <v>43</v>
       </c>
       <c r="B48" s="16">
-        <v>37403</v>
+        <v>37202</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="D48" s="15">
         <v>1010304004</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G48" s="18"/>
       <c r="H48" s="7">
         <v>0</v>
       </c>
@@ -5791,22 +5838,23 @@
         <v>44</v>
       </c>
       <c r="B49" s="16">
-        <v>37181</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>227</v>
+        <v>37186</v>
+      </c>
+      <c r="C49" s="15" t="str">
+        <f>_xlfn.CONCAT(D49,B49)</f>
+        <v>101030400437186</v>
       </c>
       <c r="D49" s="15">
         <v>1010304004</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="8">
+      <c r="G49" s="18"/>
+      <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="8"/>
@@ -5817,22 +5865,23 @@
         <v>45</v>
       </c>
       <c r="B50" s="16">
-        <v>37191</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>228</v>
+        <v>37177</v>
+      </c>
+      <c r="C50" s="15" t="str">
+        <f>_xlfn.CONCAT(D50,B50)</f>
+        <v>101030400437177</v>
       </c>
       <c r="D50" s="15">
         <v>1010304004</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="8">
+        <v>13</v>
+      </c>
+      <c r="G50" s="18"/>
+      <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="8"/>
@@ -5843,22 +5892,23 @@
         <v>46</v>
       </c>
       <c r="B51" s="16">
-        <v>37182</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>229</v>
+        <v>37223</v>
+      </c>
+      <c r="C51" s="15" t="str">
+        <f>_xlfn.CONCAT(D51,B51)</f>
+        <v>101030400437223</v>
       </c>
       <c r="D51" s="15">
         <v>1010304004</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="8">
+      <c r="G51" s="18"/>
+      <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="8"/>
@@ -5869,22 +5919,23 @@
         <v>47</v>
       </c>
       <c r="B52" s="16">
-        <v>37180</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>230</v>
+        <v>37224</v>
+      </c>
+      <c r="C52" s="15" t="str">
+        <f>_xlfn.CONCAT(D52,B52)</f>
+        <v>101030400437224</v>
       </c>
       <c r="D52" s="15">
         <v>1010304004</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="8">
+        <v>13</v>
+      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="8"/>
@@ -5895,72 +5946,811 @@
         <v>48</v>
       </c>
       <c r="B53" s="16">
-        <v>37237</v>
+        <v>37185</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="D53" s="15">
-        <v>1010304006</v>
+        <v>1010304004</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="8">
+      <c r="G53" s="18"/>
+      <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" s="12" customFormat="1" ht="13.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="15">
         <v>49</v>
       </c>
       <c r="B54" s="16">
+        <v>37225</v>
+      </c>
+      <c r="C54" s="15" t="str">
+        <f t="shared" ref="C54:C59" si="4">_xlfn.CONCAT(D54,B54)</f>
+        <v>101030400437225</v>
+      </c>
+      <c r="D54" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="18"/>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="15">
+        <v>50</v>
+      </c>
+      <c r="B55" s="16">
+        <v>37226</v>
+      </c>
+      <c r="C55" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>101030400437226</v>
+      </c>
+      <c r="D55" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="15">
+        <v>51</v>
+      </c>
+      <c r="B56" s="16">
+        <v>37227</v>
+      </c>
+      <c r="C56" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>101030400437227</v>
+      </c>
+      <c r="D56" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="15">
+        <v>52</v>
+      </c>
+      <c r="B57" s="16">
+        <v>37228</v>
+      </c>
+      <c r="C57" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>101030400437228</v>
+      </c>
+      <c r="D57" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="15">
+        <v>53</v>
+      </c>
+      <c r="B58" s="16">
+        <v>37365</v>
+      </c>
+      <c r="C58" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>101030400437365</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="18"/>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="15">
+        <v>54</v>
+      </c>
+      <c r="B59" s="16">
+        <v>37366</v>
+      </c>
+      <c r="C59" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>101030400437366</v>
+      </c>
+      <c r="D59" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="18"/>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="15">
+        <v>55</v>
+      </c>
+      <c r="B60" s="16">
+        <v>37178</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="18"/>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="15">
+        <v>56</v>
+      </c>
+      <c r="B61" s="16">
+        <v>37165</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="18"/>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="15">
+        <v>57</v>
+      </c>
+      <c r="B62" s="16">
+        <v>37212</v>
+      </c>
+      <c r="C62" s="15" t="str">
+        <f>_xlfn.CONCAT(D62,B62)</f>
+        <v>101030400437212</v>
+      </c>
+      <c r="D62" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="18"/>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="15">
+        <v>58</v>
+      </c>
+      <c r="B63" s="16">
+        <v>37213</v>
+      </c>
+      <c r="C63" s="15" t="str">
+        <f>_xlfn.CONCAT(D63,B63)</f>
+        <v>101030400437213</v>
+      </c>
+      <c r="D63" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="15">
+        <v>59</v>
+      </c>
+      <c r="B64" s="16">
+        <v>37229</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="15">
+        <v>60</v>
+      </c>
+      <c r="B65" s="16">
+        <v>37230</v>
+      </c>
+      <c r="C65" s="15" t="str">
+        <f>_xlfn.CONCAT(D65,B65)</f>
+        <v>101030400437230</v>
+      </c>
+      <c r="D65" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="15">
+        <v>61</v>
+      </c>
+      <c r="B66" s="16">
+        <v>37231</v>
+      </c>
+      <c r="C66" s="15" t="str">
+        <f>_xlfn.CONCAT(D66,B66)</f>
+        <v>101030400437231</v>
+      </c>
+      <c r="D66" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="15">
+        <v>62</v>
+      </c>
+      <c r="B67" s="16">
+        <v>37150</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="18"/>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="15">
+        <v>63</v>
+      </c>
+      <c r="B68" s="16">
+        <v>37145</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="18"/>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="15">
+        <v>64</v>
+      </c>
+      <c r="B69" s="16">
+        <v>37207</v>
+      </c>
+      <c r="C69" s="15" t="str">
+        <f t="shared" ref="C69:C76" si="5">_xlfn.CONCAT(D69,B69)</f>
+        <v>101030400437207</v>
+      </c>
+      <c r="D69" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="15">
+        <v>65</v>
+      </c>
+      <c r="B70" s="16">
+        <v>37208</v>
+      </c>
+      <c r="C70" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>101030400437208</v>
+      </c>
+      <c r="D70" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="15">
+        <v>66</v>
+      </c>
+      <c r="B71" s="16">
+        <v>37395</v>
+      </c>
+      <c r="C71" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>101030400437395</v>
+      </c>
+      <c r="D71" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="18"/>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="15">
+        <v>67</v>
+      </c>
+      <c r="B72" s="16">
+        <v>37396</v>
+      </c>
+      <c r="C72" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>101030400437396</v>
+      </c>
+      <c r="D72" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="18"/>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="15">
+        <v>68</v>
+      </c>
+      <c r="B73" s="16">
+        <v>37232</v>
+      </c>
+      <c r="C73" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>101030400437232</v>
+      </c>
+      <c r="D73" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="18"/>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="15">
+        <v>69</v>
+      </c>
+      <c r="B74" s="16">
+        <v>37233</v>
+      </c>
+      <c r="C74" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>101030400437233</v>
+      </c>
+      <c r="D74" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="18"/>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="15">
+        <v>70</v>
+      </c>
+      <c r="B75" s="16">
+        <v>37401</v>
+      </c>
+      <c r="C75" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>101030400437401</v>
+      </c>
+      <c r="D75" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="18"/>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="15">
+        <v>71</v>
+      </c>
+      <c r="B76" s="16">
+        <v>37402</v>
+      </c>
+      <c r="C76" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>101030400437402</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="18"/>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="15">
+        <v>72</v>
+      </c>
+      <c r="B77" s="16">
+        <v>37181</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="8"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="15">
+        <v>73</v>
+      </c>
+      <c r="B78" s="16">
+        <v>37191</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="18"/>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="15">
+        <v>74</v>
+      </c>
+      <c r="B79" s="16">
+        <v>37182</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="18"/>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="1:10" s="12" customFormat="1" ht="13.2">
+      <c r="A80" s="15">
+        <v>75</v>
+      </c>
+      <c r="B80" s="16">
+        <v>37180</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1010304004</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="18"/>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="15">
+        <v>76</v>
+      </c>
+      <c r="B81" s="16">
+        <v>37237</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="15">
+        <v>1010304006</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="18"/>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="8"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="1:10" s="12" customFormat="1" ht="13.2">
+      <c r="A82" s="15">
+        <v>77</v>
+      </c>
+      <c r="B82" s="16">
         <v>37236</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D54" s="15">
+      <c r="C82" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="15">
         <v>1010304006</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="8">
-        <v>0</v>
-      </c>
-      <c r="I54" s="8"/>
+      <c r="E82" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="18"/>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5Kb2v/x6q8Hm+JB6paxq3bz8mzNl/bx5RP3V+Wn0b97rJmf1YvAf4OYNPa/SR29OZ+p8rb0GZbnQTgd2U5l5RA==" saltValue="PkhHdFLi6pScraZIP0P/nw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A5:I54" xr:uid="{C53612C0-DDF2-4350-AF4D-75C247024156}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I54">
-      <sortCondition ref="E5:E54"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JcbaelMlk10cYg1ohWaYU+sfhGgk1syCtI25pAJK+8S24hquQ1si1dtMZ8bVIQ73PEuW2Ce59U9yyhvvvAlF7Q==" saltValue="rmM7YidmYhG7Oj+O73874w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A5:I80" xr:uid="{C53612C0-DDF2-4350-AF4D-75C247024156}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I82">
+      <sortCondition ref="E5:E80"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C10:H51">
-    <sortCondition ref="E10:E51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:H77">
+    <sortCondition ref="E11:E77"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C4:I4"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1-1000" sqref="H10:H37 H40:H53" xr:uid="{75D680BE-DF58-4322-B1EB-3621CF4A6D68}">
-      <formula1>1</formula1>
-      <formula2>10000</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1 - 10000" sqref="H6:H9 H38:H39 H54" xr:uid="{05F925E5-B2E1-461C-B428-F98D458C2F4D}">
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1 - 10000" sqref="H6:H82" xr:uid="{05F925E5-B2E1-461C-B428-F98D458C2F4D}">
       <formula1>1</formula1>
       <formula2>10000</formula2>
     </dataValidation>

--- a/public/format/format_permintaan_atk.xlsx
+++ b/public/format/format_permintaan_atk.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfahm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEAEF03-449F-465C-927C-236C2A9B10F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A668D127-30A9-4F76-899D-3176D4AFCB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atk" sheetId="1" r:id="rId1"/>
     <sheet name="Alkom" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alkom!$A$5:$I$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alkom!$A$5:$I$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atk!$A$5:$G$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="370">
   <si>
     <t>id_atk</t>
   </si>
@@ -382,9 +382,6 @@
     <t>Ballpoint Standard AE7 (Lusin)</t>
   </si>
   <si>
-    <t>Batu Baterai AA (Set)</t>
-  </si>
-  <si>
     <t>Batu Baterai AAA (Set)</t>
   </si>
   <si>
@@ -499,12 +496,6 @@
     <t>Toner HP 12A</t>
   </si>
   <si>
-    <t>USB Flash Disk 32 GB OTG</t>
-  </si>
-  <si>
-    <t>USB Hub/Port</t>
-  </si>
-  <si>
     <t>101030400438047</t>
   </si>
   <si>
@@ -1118,6 +1109,36 @@
   </si>
   <si>
     <t>Post-It No. 654 Kuning</t>
+  </si>
+  <si>
+    <t>USB Flash Disk 32 GB</t>
+  </si>
+  <si>
+    <t>USB Flash Disk 64 GB</t>
+  </si>
+  <si>
+    <t>USB Flash Disk 128 GB</t>
+  </si>
+  <si>
+    <t>USB Flash Disk 256 GB</t>
+  </si>
+  <si>
+    <t>Buah</t>
+  </si>
+  <si>
+    <t>101030400640000</t>
+  </si>
+  <si>
+    <t>101030400640001</t>
+  </si>
+  <si>
+    <t>101030400640002</t>
+  </si>
+  <si>
+    <t>Batu Baterai AA (1 set isi 2 pcs)</t>
+  </si>
+  <si>
+    <t>USB Port / USB Hub</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,6 +1319,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1614,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -1731,7 +1753,7 @@
         <v>38000</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D6" s="15">
         <v>1010302004</v>
@@ -1756,7 +1778,7 @@
         <v>38001</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D7" s="15">
         <v>1010302004</v>
@@ -1781,7 +1803,7 @@
         <v>38002</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" s="15">
         <v>1010302004</v>
@@ -1806,13 +1828,13 @@
         <v>38009</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D9" s="15">
         <v>1010301001</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>6</v>
@@ -1831,7 +1853,7 @@
         <v>37006</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D10" s="15">
         <v>1010301001</v>
@@ -1856,7 +1878,7 @@
         <v>38003</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D11" s="15">
         <v>1010301001</v>
@@ -1881,7 +1903,7 @@
         <v>38004</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" s="15">
         <v>1010301001</v>
@@ -1906,7 +1928,7 @@
         <v>38005</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D13" s="15">
         <v>1010301001</v>
@@ -1931,7 +1953,7 @@
         <v>37016</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D14" s="15">
         <v>1010301001</v>
@@ -1956,7 +1978,7 @@
         <v>38006</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D15" s="15">
         <v>1010301001</v>
@@ -1981,7 +2003,7 @@
         <v>38007</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D16" s="15">
         <v>1010301001</v>
@@ -2006,7 +2028,7 @@
         <v>37021</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D17" s="15">
         <v>1010301001</v>
@@ -2031,7 +2053,7 @@
         <v>38008</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D18" s="15">
         <v>1010301001</v>
@@ -2056,7 +2078,7 @@
         <v>37039</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D19" s="15">
         <v>1010301003</v>
@@ -2081,13 +2103,13 @@
         <v>37027</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D20" s="15">
         <v>1010301003</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>113</v>
@@ -2106,13 +2128,13 @@
         <v>37028</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D21" s="15">
         <v>1010301003</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>113</v>
@@ -2131,13 +2153,13 @@
         <v>37029</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D22" s="15">
         <v>1010301003</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>113</v>
@@ -2156,13 +2178,13 @@
         <v>37030</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D23" s="15">
         <v>1010301003</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>113</v>
@@ -2181,13 +2203,13 @@
         <v>37031</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D24" s="15">
         <v>1010301003</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>113</v>
@@ -2206,13 +2228,13 @@
         <v>37042</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D25" s="15">
         <v>1010301003</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>113</v>
@@ -2231,7 +2253,7 @@
         <v>370785</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D26" s="15">
         <v>1010301003</v>
@@ -2256,7 +2278,7 @@
         <v>38010</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D27" s="15">
         <v>1010301999</v>
@@ -2281,7 +2303,7 @@
         <v>38011</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D28" s="15">
         <v>1010301999</v>
@@ -2306,7 +2328,7 @@
         <v>38012</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D29" s="15">
         <v>1010301999</v>
@@ -2331,7 +2353,7 @@
         <v>38013</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D30" s="15">
         <v>1010301999</v>
@@ -2356,7 +2378,7 @@
         <v>37064</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D31" s="15">
         <v>1010301006</v>
@@ -2381,7 +2403,7 @@
         <v>37083</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D32" s="15">
         <v>1010301008</v>
@@ -2406,7 +2428,7 @@
         <v>37082</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D33" s="15">
         <v>1010301008</v>
@@ -2431,7 +2453,7 @@
         <v>38014</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D34" s="15">
         <v>1010301010</v>
@@ -2456,7 +2478,7 @@
         <v>38015</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D35" s="15">
         <v>1010301010</v>
@@ -2481,7 +2503,7 @@
         <v>38016</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D36" s="15">
         <v>1010301010</v>
@@ -2506,13 +2528,13 @@
         <v>37375</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D37" s="15">
         <v>1010301999</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>11</v>
@@ -2531,13 +2553,13 @@
         <v>37111</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D38" s="15">
         <v>1010301999</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>11</v>
@@ -2556,13 +2578,13 @@
         <v>37101</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D39" s="15">
         <v>1010301013</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>4</v>
@@ -2581,13 +2603,13 @@
         <v>37100</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D40" s="15">
         <v>1010301013</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>4</v>
@@ -2612,7 +2634,7 @@
         <v>1010302001</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>4</v>
@@ -2631,7 +2653,7 @@
         <v>37125</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D42" s="15">
         <v>1010302001</v>
@@ -2681,7 +2703,7 @@
         <v>37122</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D44" s="15">
         <v>1010302001</v>
@@ -2706,7 +2728,7 @@
         <v>38017</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D45" s="15">
         <v>1010302001</v>
@@ -2756,7 +2778,7 @@
         <v>37121</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D47" s="15">
         <v>1010302001</v>
@@ -2781,7 +2803,7 @@
         <v>38018</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D48" s="15">
         <v>1010302001</v>
@@ -2806,7 +2828,7 @@
         <v>37135</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D49" s="15">
         <v>1010301999</v>
@@ -2831,7 +2853,7 @@
         <v>37138</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D50" s="15">
         <v>1010301999</v>
@@ -2856,13 +2878,13 @@
         <v>37382</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D51" s="15">
         <v>1010301010</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>4</v>
@@ -2881,13 +2903,13 @@
         <v>37383</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D52" s="15">
         <v>1010301010</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>4</v>
@@ -2906,13 +2928,13 @@
         <v>37384</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D53" s="15">
         <v>1010301010</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>4</v>
@@ -2931,13 +2953,13 @@
         <v>37385</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D54" s="15">
         <v>1010301010</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>4</v>
@@ -2956,13 +2978,13 @@
         <v>370790</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D55" s="15">
         <v>1010301010</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>4</v>
@@ -2981,13 +3003,13 @@
         <v>37386</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D56" s="15">
         <v>1010301010</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>4</v>
@@ -3006,7 +3028,7 @@
         <v>38019</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D57" s="15">
         <v>1010301010</v>
@@ -3031,7 +3053,7 @@
         <v>38020</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D58" s="15">
         <v>1010301010</v>
@@ -3056,7 +3078,7 @@
         <v>38021</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D59" s="15">
         <v>1010301010</v>
@@ -3081,7 +3103,7 @@
         <v>38022</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D60" s="15">
         <v>1010301010</v>
@@ -3106,7 +3128,7 @@
         <v>38023</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D61" s="15">
         <v>1010301010</v>
@@ -3131,7 +3153,7 @@
         <v>38024</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D62" s="15">
         <v>1010301010</v>
@@ -3156,7 +3178,7 @@
         <v>38025</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D63" s="15">
         <v>1010301010</v>
@@ -3181,7 +3203,7 @@
         <v>38026</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D64" s="15">
         <v>1010301010</v>
@@ -3206,13 +3228,13 @@
         <v>37085</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D65" s="15">
         <v>1010301010</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>11</v>
@@ -3231,13 +3253,13 @@
         <v>37373</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D66" s="15">
         <v>1010301010</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>11</v>
@@ -3262,7 +3284,7 @@
         <v>1010301006</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>7</v>
@@ -3281,13 +3303,13 @@
         <v>370798</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D68" s="15">
         <v>1010301006</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>7</v>
@@ -3306,13 +3328,13 @@
         <v>37065</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D69" s="15">
         <v>1010301006</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>11</v>
@@ -3331,7 +3353,7 @@
         <v>37061</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D70" s="15">
         <v>1010301006</v>
@@ -3356,7 +3378,7 @@
         <v>37071</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D71" s="15">
         <v>1010301006</v>
@@ -3381,13 +3403,13 @@
         <v>38027</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D72" s="15">
         <v>1010301006</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>4</v>
@@ -3406,13 +3428,13 @@
         <v>370812</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D73" s="15">
         <v>1010301006</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>6</v>
@@ -3431,13 +3453,13 @@
         <v>370813</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D74" s="15">
         <v>1010301006</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>6</v>
@@ -3456,7 +3478,7 @@
         <v>38028</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D75" s="15">
         <v>1010301006</v>
@@ -3481,7 +3503,7 @@
         <v>38029</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D76" s="15">
         <v>1010301006</v>
@@ -3506,13 +3528,13 @@
         <v>37063</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D77" s="15">
         <v>1010301006</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>11</v>
@@ -3531,13 +3553,13 @@
         <v>370784</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D78" s="15">
         <v>1010301006</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>11</v>
@@ -3556,7 +3578,7 @@
         <v>38030</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D79" s="15">
         <v>1010301006</v>
@@ -3581,7 +3603,7 @@
         <v>38031</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D80" s="15">
         <v>1010301006</v>
@@ -3606,7 +3628,7 @@
         <v>38032</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D81" s="15">
         <v>1010301006</v>
@@ -3631,13 +3653,13 @@
         <v>370861</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D82" s="15">
         <v>1010301006</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>11</v>
@@ -3656,13 +3678,13 @@
         <v>37062</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D83" s="15">
         <v>1010301006</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>11</v>
@@ -3681,13 +3703,13 @@
         <v>370773</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D84" s="15">
         <v>1010301003</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>4</v>
@@ -3706,13 +3728,13 @@
         <v>370782</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D85" s="15">
         <v>1010301003</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>4</v>
@@ -3731,13 +3753,13 @@
         <v>370774</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D86" s="15">
         <v>1010301003</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>4</v>
@@ -3756,13 +3778,13 @@
         <v>37032</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D87" s="15">
         <v>1010301003</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>4</v>
@@ -3781,7 +3803,7 @@
         <v>37078</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D88" s="15">
         <v>1010301007</v>
@@ -3806,7 +3828,7 @@
         <v>37080</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D89" s="15">
         <v>1010301007</v>
@@ -3831,13 +3853,13 @@
         <v>37081</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D90" s="15">
         <v>1010301007</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F90" s="15" t="s">
         <v>11</v>
@@ -3856,13 +3878,13 @@
         <v>370818</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D91" s="15">
         <v>1010301004</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>11</v>
@@ -3881,7 +3903,7 @@
         <v>38033</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D92" s="15">
         <v>1010301004</v>
@@ -3906,7 +3928,7 @@
         <v>38034</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D93" s="15">
         <v>1010301001</v>
@@ -3931,7 +3953,7 @@
         <v>38035</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D94" s="15">
         <v>1010301999</v>
@@ -3956,13 +3978,13 @@
         <v>38036</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D95" s="15">
         <v>1010301999</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>108</v>
@@ -3981,7 +4003,7 @@
         <v>38037</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D96" s="15">
         <v>1010301999</v>
@@ -4006,7 +4028,7 @@
         <v>38038</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D97" s="15">
         <v>1010301999</v>
@@ -4031,7 +4053,7 @@
         <v>38039</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D98" s="15">
         <v>1010301999</v>
@@ -4056,7 +4078,7 @@
         <v>38040</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D99" s="15">
         <v>1010301999</v>
@@ -4081,7 +4103,7 @@
         <v>38041</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D100" s="15">
         <v>1010301999</v>
@@ -4106,7 +4128,7 @@
         <v>370815</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D101" s="15">
         <v>1010301999</v>
@@ -4131,7 +4153,7 @@
         <v>38042</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D102" s="15">
         <v>1010301999</v>
@@ -4156,13 +4178,13 @@
         <v>37008</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D103" s="15">
         <v>1010301001</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F103" s="15" t="s">
         <v>11</v>
@@ -4181,13 +4203,13 @@
         <v>370816</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D104" s="15">
         <v>1010301001</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>11</v>
@@ -4206,13 +4228,13 @@
         <v>37020</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D105" s="15">
         <v>1010301001</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>113</v>
@@ -4231,13 +4253,13 @@
         <v>370862</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D106" s="15">
         <v>1010301001</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F106" s="15" t="s">
         <v>11</v>
@@ -4256,7 +4278,7 @@
         <v>38044</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D107" s="15">
         <v>1010301001</v>
@@ -4281,13 +4303,13 @@
         <v>370819</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D108" s="15">
         <v>1010301001</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F108" s="15" t="s">
         <v>113</v>
@@ -4306,13 +4328,13 @@
         <v>37387</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D109" s="15">
         <v>1010301001</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>11</v>
@@ -4331,7 +4353,7 @@
         <v>37003</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D110" s="15">
         <v>1010301001</v>
@@ -4356,7 +4378,7 @@
         <v>37379</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D111" s="15">
         <v>1010301999</v>
@@ -4381,13 +4403,13 @@
         <v>37099</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D112" s="15">
         <v>1010301999</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>11</v>
@@ -4406,13 +4428,13 @@
         <v>37098</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D113" s="15">
         <v>1010301999</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>11</v>
@@ -4431,7 +4453,7 @@
         <v>38045</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D114" s="15">
         <v>1010301999</v>
@@ -4456,7 +4478,7 @@
         <v>38046</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D115" s="15">
         <v>1010301999</v>
@@ -4487,7 +4509,7 @@
         <v>1010301999</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F116" s="15" t="s">
         <v>11</v>
@@ -4506,7 +4528,7 @@
         <v>37025</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D117" s="15">
         <v>1010301999</v>
@@ -4531,13 +4553,13 @@
         <v>370805</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D118" s="15">
         <v>1010301004</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F118" s="15" t="s">
         <v>11</v>
@@ -4556,13 +4578,13 @@
         <v>37046</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D119" s="15">
         <v>1010301004</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>11</v>
@@ -4574,6 +4596,7 @@
       <c r="I119" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="8QSNdoX7zYrq/QkGdW43tYlKO4JHov+EuPMNRWzuLIN0agn7WkW0f6E2Sae7GZKKBjt+c/AcGU4w14xVTcHNSQ==" saltValue="gmixAQLlLwObhm1L1ORyxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A5:G48" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G117">
       <sortCondition ref="E5:E48"/>
@@ -4596,17 +4619,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53612C0-DDF2-4350-AF4D-75C247024156}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="45.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" style="9" customWidth="1"/>
@@ -4712,46 +4735,47 @@
         <v>1</v>
       </c>
       <c r="B6" s="16">
-        <v>37239</v>
+        <v>37280</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="D6" s="15">
-        <v>1010304010</v>
+        <v>1010306010</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="13.2">
       <c r="A7" s="15">
         <v>2</v>
       </c>
       <c r="B7" s="16">
-        <v>38047</v>
+        <v>37282</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="D7" s="15">
-        <v>1010304004</v>
+        <v>1010306010</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="7">
         <v>0</v>
       </c>
@@ -4762,16 +4786,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="16">
-        <v>370807</v>
+        <v>37239</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="D8" s="15">
-        <v>1010304004</v>
+        <v>1010304010</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>11</v>
@@ -4787,20 +4811,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="16">
-        <v>370834</v>
-      </c>
-      <c r="C9" s="15" t="str">
-        <f t="shared" ref="C9:C14" si="0">_xlfn.CONCAT(D9,B9)</f>
-        <v>1010304004370834</v>
+        <v>38047</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="D9" s="15">
         <v>1010304004</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>298</v>
+        <v>150</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="7">
@@ -4813,20 +4836,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="16">
-        <v>370835</v>
-      </c>
-      <c r="C10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>1010304004370835</v>
+        <v>370807</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="D10" s="15">
         <v>1010304004</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>297</v>
+        <v>151</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="7">
@@ -4839,17 +4861,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="16">
-        <v>37407</v>
+        <v>370834</v>
       </c>
       <c r="C11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>101030400437407</v>
+        <f t="shared" ref="C11:C16" si="0">_xlfn.CONCAT(D11,B11)</f>
+        <v>1010304004370834</v>
       </c>
       <c r="D11" s="15">
         <v>1010304004</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>11</v>
@@ -4859,24 +4881,23 @@
         <v>0</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="15">
         <v>7</v>
       </c>
       <c r="B12" s="16">
-        <v>37408</v>
+        <v>370835</v>
       </c>
       <c r="C12" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>101030400437408</v>
+        <v>1010304004370835</v>
       </c>
       <c r="D12" s="15">
         <v>1010304004</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>13</v>
@@ -4886,24 +4907,23 @@
         <v>0</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="15">
         <v>8</v>
       </c>
       <c r="B13" s="16">
-        <v>370836</v>
+        <v>37407</v>
       </c>
       <c r="C13" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>1010304004370836</v>
+        <v>101030400437407</v>
       </c>
       <c r="D13" s="15">
         <v>1010304004</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>11</v>
@@ -4920,17 +4940,17 @@
         <v>9</v>
       </c>
       <c r="B14" s="16">
-        <v>370837</v>
+        <v>37408</v>
       </c>
       <c r="C14" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>1010304004370837</v>
+        <v>101030400437408</v>
       </c>
       <c r="D14" s="15">
         <v>1010304004</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>13</v>
@@ -4947,16 +4967,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="16">
-        <v>370853</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>351</v>
+        <v>370836</v>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>1010304004370836</v>
       </c>
       <c r="D15" s="15">
         <v>1010304004</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>11</v>
@@ -4973,16 +4994,17 @@
         <v>11</v>
       </c>
       <c r="B16" s="16">
-        <v>370854</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>351</v>
+        <v>370837</v>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>1010304004370837</v>
       </c>
       <c r="D16" s="15">
         <v>1010304004</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>13</v>
@@ -4999,17 +5021,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="16">
-        <v>37166</v>
-      </c>
-      <c r="C17" s="15" t="str">
-        <f t="shared" ref="C17:C24" si="1">_xlfn.CONCAT(D17,B17)</f>
-        <v>101030400437166</v>
+        <v>370853</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="D17" s="15">
         <v>1010304004</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>11</v>
@@ -5026,17 +5047,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="16">
-        <v>370838</v>
-      </c>
-      <c r="C18" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>1010304004370838</v>
+        <v>370854</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="D18" s="15">
         <v>1010304004</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>13</v>
@@ -5053,17 +5073,17 @@
         <v>14</v>
       </c>
       <c r="B19" s="16">
-        <v>370839</v>
+        <v>37166</v>
       </c>
       <c r="C19" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>1010304004370839</v>
+        <f t="shared" ref="C19:C26" si="1">_xlfn.CONCAT(D19,B19)</f>
+        <v>101030400437166</v>
       </c>
       <c r="D19" s="15">
         <v>1010304004</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>11</v>
@@ -5080,17 +5100,17 @@
         <v>15</v>
       </c>
       <c r="B20" s="16">
-        <v>370840</v>
+        <v>370838</v>
       </c>
       <c r="C20" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1010304004370840</v>
+        <v>1010304004370838</v>
       </c>
       <c r="D20" s="15">
         <v>1010304004</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>13</v>
@@ -5107,17 +5127,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="16">
-        <v>370841</v>
+        <v>370839</v>
       </c>
       <c r="C21" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1010304004370841</v>
+        <v>1010304004370839</v>
       </c>
       <c r="D21" s="15">
         <v>1010304004</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>11</v>
@@ -5134,17 +5154,17 @@
         <v>17</v>
       </c>
       <c r="B22" s="16">
-        <v>370842</v>
+        <v>370840</v>
       </c>
       <c r="C22" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1010304004370842</v>
+        <v>1010304004370840</v>
       </c>
       <c r="D22" s="15">
         <v>1010304004</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>13</v>
@@ -5161,17 +5181,17 @@
         <v>18</v>
       </c>
       <c r="B23" s="16">
-        <v>370843</v>
+        <v>370841</v>
       </c>
       <c r="C23" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1010304004370843</v>
+        <v>1010304004370841</v>
       </c>
       <c r="D23" s="15">
         <v>1010304004</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>11</v>
@@ -5188,17 +5208,17 @@
         <v>19</v>
       </c>
       <c r="B24" s="16">
-        <v>370844</v>
+        <v>370842</v>
       </c>
       <c r="C24" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1010304004370844</v>
+        <v>1010304004370842</v>
       </c>
       <c r="D24" s="15">
         <v>1010304004</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>13</v>
@@ -5215,16 +5235,17 @@
         <v>20</v>
       </c>
       <c r="B25" s="16">
-        <v>37199</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>160</v>
+        <v>370843</v>
+      </c>
+      <c r="C25" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1010304004370843</v>
       </c>
       <c r="D25" s="15">
         <v>1010304004</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>11</v>
@@ -5241,19 +5262,20 @@
         <v>21</v>
       </c>
       <c r="B26" s="16">
-        <v>37200</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>161</v>
+        <v>370844</v>
+      </c>
+      <c r="C26" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1010304004370844</v>
       </c>
       <c r="D26" s="15">
         <v>1010304004</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="7">
@@ -5267,16 +5289,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="16">
-        <v>37201</v>
+        <v>37199</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D27" s="15">
         <v>1010304004</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>11</v>
@@ -5293,16 +5315,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="16">
-        <v>37156</v>
+        <v>37200</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D28" s="15">
         <v>1010304004</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>11</v>
@@ -5319,16 +5341,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="16">
-        <v>37214</v>
+        <v>37201</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D29" s="15">
         <v>1010304004</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>11</v>
@@ -5345,17 +5367,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="16">
-        <v>37215</v>
-      </c>
-      <c r="C30" s="15" t="str">
-        <f t="shared" ref="C30:C39" si="2">_xlfn.CONCAT(D30,B30)</f>
-        <v>101030400437215</v>
+        <v>37156</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="D30" s="15">
         <v>1010304004</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>11</v>
@@ -5372,20 +5393,19 @@
         <v>26</v>
       </c>
       <c r="B31" s="16">
-        <v>37216</v>
-      </c>
-      <c r="C31" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>101030400437216</v>
+        <v>37214</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="D31" s="15">
         <v>1010304004</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="7">
@@ -5399,17 +5419,17 @@
         <v>27</v>
       </c>
       <c r="B32" s="16">
-        <v>370845</v>
+        <v>37215</v>
       </c>
       <c r="C32" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>1010304004370845</v>
+        <f t="shared" ref="C32:C41" si="2">_xlfn.CONCAT(D32,B32)</f>
+        <v>101030400437215</v>
       </c>
       <c r="D32" s="15">
         <v>1010304004</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>11</v>
@@ -5426,17 +5446,17 @@
         <v>28</v>
       </c>
       <c r="B33" s="16">
-        <v>370846</v>
+        <v>37216</v>
       </c>
       <c r="C33" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>1010304004370846</v>
+        <v>101030400437216</v>
       </c>
       <c r="D33" s="15">
         <v>1010304004</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>13</v>
@@ -5453,17 +5473,17 @@
         <v>29</v>
       </c>
       <c r="B34" s="16">
-        <v>370847</v>
+        <v>370845</v>
       </c>
       <c r="C34" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>1010304004370847</v>
+        <v>1010304004370845</v>
       </c>
       <c r="D34" s="15">
         <v>1010304004</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>11</v>
@@ -5480,20 +5500,20 @@
         <v>30</v>
       </c>
       <c r="B35" s="16">
-        <v>370848</v>
+        <v>370846</v>
       </c>
       <c r="C35" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>1010304004370848</v>
+        <v>1010304004370846</v>
       </c>
       <c r="D35" s="15">
         <v>1010304004</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="7">
@@ -5507,17 +5527,17 @@
         <v>31</v>
       </c>
       <c r="B36" s="16">
-        <v>370849</v>
+        <v>370847</v>
       </c>
       <c r="C36" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>1010304004370849</v>
+        <v>1010304004370847</v>
       </c>
       <c r="D36" s="15">
         <v>1010304004</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>11</v>
@@ -5534,17 +5554,17 @@
         <v>32</v>
       </c>
       <c r="B37" s="16">
-        <v>370850</v>
+        <v>370848</v>
       </c>
       <c r="C37" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>1010304004370850</v>
+        <v>1010304004370848</v>
       </c>
       <c r="D37" s="15">
         <v>1010304004</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>11</v>
@@ -5561,17 +5581,17 @@
         <v>33</v>
       </c>
       <c r="B38" s="16">
-        <v>370851</v>
+        <v>370849</v>
       </c>
       <c r="C38" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>1010304004370851</v>
+        <v>1010304004370849</v>
       </c>
       <c r="D38" s="15">
         <v>1010304004</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>11</v>
@@ -5588,20 +5608,20 @@
         <v>34</v>
       </c>
       <c r="B39" s="16">
-        <v>370852</v>
+        <v>370850</v>
       </c>
       <c r="C39" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>1010304004370852</v>
+        <v>1010304004370850</v>
       </c>
       <c r="D39" s="15">
         <v>1010304004</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="7">
@@ -5615,16 +5635,17 @@
         <v>35</v>
       </c>
       <c r="B40" s="16">
-        <v>37217</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>165</v>
+        <v>370851</v>
+      </c>
+      <c r="C40" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>1010304004370851</v>
       </c>
       <c r="D40" s="15">
         <v>1010304004</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>11</v>
@@ -5641,19 +5662,20 @@
         <v>36</v>
       </c>
       <c r="B41" s="16">
-        <v>37218</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>166</v>
+        <v>370852</v>
+      </c>
+      <c r="C41" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>1010304004370852</v>
       </c>
       <c r="D41" s="15">
         <v>1010304004</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>47</v>
+        <v>337</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="7">
@@ -5667,17 +5689,16 @@
         <v>37</v>
       </c>
       <c r="B42" s="16">
-        <v>37219</v>
-      </c>
-      <c r="C42" s="15" t="str">
-        <f t="shared" ref="C42:C47" si="3">_xlfn.CONCAT(D42,B42)</f>
-        <v>101030400437219</v>
+        <v>37217</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="D42" s="15">
         <v>1010304004</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>316</v>
+        <v>46</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>11</v>
@@ -5694,20 +5715,19 @@
         <v>38</v>
       </c>
       <c r="B43" s="16">
-        <v>37220</v>
-      </c>
-      <c r="C43" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>101030400437220</v>
+        <v>37218</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="D43" s="15">
         <v>1010304004</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>341</v>
+        <v>47</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="7">
@@ -5721,17 +5741,17 @@
         <v>39</v>
       </c>
       <c r="B44" s="16">
-        <v>37398</v>
+        <v>37219</v>
       </c>
       <c r="C44" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>101030400437398</v>
+        <f t="shared" ref="C44:C49" si="3">_xlfn.CONCAT(D44,B44)</f>
+        <v>101030400437219</v>
       </c>
       <c r="D44" s="15">
         <v>1010304004</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>11</v>
@@ -5748,17 +5768,17 @@
         <v>40</v>
       </c>
       <c r="B45" s="16">
-        <v>37399</v>
+        <v>37220</v>
       </c>
       <c r="C45" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>101030400437399</v>
+        <v>101030400437220</v>
       </c>
       <c r="D45" s="15">
         <v>1010304004</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>13</v>
@@ -5775,17 +5795,17 @@
         <v>41</v>
       </c>
       <c r="B46" s="16">
-        <v>37221</v>
+        <v>37398</v>
       </c>
       <c r="C46" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>101030400437221</v>
+        <v>101030400437398</v>
       </c>
       <c r="D46" s="15">
         <v>1010304004</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>11</v>
@@ -5802,17 +5822,17 @@
         <v>42</v>
       </c>
       <c r="B47" s="16">
-        <v>37222</v>
+        <v>37399</v>
       </c>
       <c r="C47" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>101030400437222</v>
+        <v>101030400437399</v>
       </c>
       <c r="D47" s="15">
         <v>1010304004</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>13</v>
@@ -5829,16 +5849,17 @@
         <v>43</v>
       </c>
       <c r="B48" s="16">
-        <v>37202</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>167</v>
+        <v>37221</v>
+      </c>
+      <c r="C48" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>101030400437221</v>
       </c>
       <c r="D48" s="15">
         <v>1010304004</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>11</v>
@@ -5855,20 +5876,20 @@
         <v>44</v>
       </c>
       <c r="B49" s="16">
-        <v>37186</v>
+        <v>37222</v>
       </c>
       <c r="C49" s="15" t="str">
-        <f>_xlfn.CONCAT(D49,B49)</f>
-        <v>101030400437186</v>
+        <f t="shared" si="3"/>
+        <v>101030400437222</v>
       </c>
       <c r="D49" s="15">
         <v>1010304004</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="7">
@@ -5882,20 +5903,19 @@
         <v>45</v>
       </c>
       <c r="B50" s="16">
-        <v>37177</v>
-      </c>
-      <c r="C50" s="15" t="str">
-        <f>_xlfn.CONCAT(D50,B50)</f>
-        <v>101030400437177</v>
+        <v>37202</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="D50" s="15">
         <v>1010304004</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>344</v>
+        <v>154</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="7">
@@ -5909,17 +5929,17 @@
         <v>46</v>
       </c>
       <c r="B51" s="16">
-        <v>37223</v>
+        <v>37186</v>
       </c>
       <c r="C51" s="15" t="str">
         <f>_xlfn.CONCAT(D51,B51)</f>
-        <v>101030400437223</v>
+        <v>101030400437186</v>
       </c>
       <c r="D51" s="15">
         <v>1010304004</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>11</v>
@@ -5936,17 +5956,17 @@
         <v>47</v>
       </c>
       <c r="B52" s="16">
-        <v>37224</v>
+        <v>37177</v>
       </c>
       <c r="C52" s="15" t="str">
         <f>_xlfn.CONCAT(D52,B52)</f>
-        <v>101030400437224</v>
+        <v>101030400437177</v>
       </c>
       <c r="D52" s="15">
         <v>1010304004</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>13</v>
@@ -5963,16 +5983,17 @@
         <v>48</v>
       </c>
       <c r="B53" s="16">
-        <v>37185</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>168</v>
+        <v>37223</v>
+      </c>
+      <c r="C53" s="15" t="str">
+        <f>_xlfn.CONCAT(D53,B53)</f>
+        <v>101030400437223</v>
       </c>
       <c r="D53" s="15">
         <v>1010304004</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>40</v>
+        <v>317</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>11</v>
@@ -5989,20 +6010,20 @@
         <v>49</v>
       </c>
       <c r="B54" s="16">
-        <v>37225</v>
+        <v>37224</v>
       </c>
       <c r="C54" s="15" t="str">
-        <f t="shared" ref="C54:C59" si="4">_xlfn.CONCAT(D54,B54)</f>
-        <v>101030400437225</v>
+        <f>_xlfn.CONCAT(D54,B54)</f>
+        <v>101030400437224</v>
       </c>
       <c r="D54" s="15">
         <v>1010304004</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="7">
@@ -6016,20 +6037,19 @@
         <v>50</v>
       </c>
       <c r="B55" s="16">
-        <v>37226</v>
-      </c>
-      <c r="C55" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>101030400437226</v>
+        <v>37185</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="D55" s="15">
         <v>1010304004</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>346</v>
+        <v>40</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="7">
@@ -6043,17 +6063,17 @@
         <v>51</v>
       </c>
       <c r="B56" s="16">
-        <v>37227</v>
+        <v>37225</v>
       </c>
       <c r="C56" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>101030400437227</v>
+        <f t="shared" ref="C56:C61" si="4">_xlfn.CONCAT(D56,B56)</f>
+        <v>101030400437225</v>
       </c>
       <c r="D56" s="15">
         <v>1010304004</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>11</v>
@@ -6063,24 +6083,24 @@
         <v>0</v>
       </c>
       <c r="I56" s="8"/>
-      <c r="J56" s="17"/>
+      <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="15">
         <v>52</v>
       </c>
       <c r="B57" s="16">
-        <v>37228</v>
+        <v>37226</v>
       </c>
       <c r="C57" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>101030400437228</v>
+        <v>101030400437226</v>
       </c>
       <c r="D57" s="15">
         <v>1010304004</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>13</v>
@@ -6090,24 +6110,24 @@
         <v>0</v>
       </c>
       <c r="I57" s="8"/>
-      <c r="J57" s="17"/>
+      <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="15">
         <v>53</v>
       </c>
       <c r="B58" s="16">
-        <v>37365</v>
+        <v>37227</v>
       </c>
       <c r="C58" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>101030400437365</v>
+        <v>101030400437227</v>
       </c>
       <c r="D58" s="15">
         <v>1010304004</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>11</v>
@@ -6117,23 +6137,24 @@
         <v>0</v>
       </c>
       <c r="I58" s="8"/>
+      <c r="J58" s="17"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="15">
         <v>54</v>
       </c>
       <c r="B59" s="16">
-        <v>37366</v>
+        <v>37228</v>
       </c>
       <c r="C59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>101030400437366</v>
+        <v>101030400437228</v>
       </c>
       <c r="D59" s="15">
         <v>1010304004</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>13</v>
@@ -6143,22 +6164,24 @@
         <v>0</v>
       </c>
       <c r="I59" s="8"/>
+      <c r="J59" s="17"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="15">
         <v>55</v>
       </c>
       <c r="B60" s="16">
-        <v>37178</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>169</v>
+        <v>37365</v>
+      </c>
+      <c r="C60" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>101030400437365</v>
       </c>
       <c r="D60" s="15">
         <v>1010304004</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>11</v>
@@ -6168,50 +6191,48 @@
         <v>0</v>
       </c>
       <c r="I60" s="8"/>
-      <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="15">
         <v>56</v>
       </c>
       <c r="B61" s="16">
-        <v>37165</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>170</v>
+        <v>37366</v>
+      </c>
+      <c r="C61" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>101030400437366</v>
       </c>
       <c r="D61" s="15">
         <v>1010304004</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>35</v>
+        <v>346</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="7">
         <v>0</v>
       </c>
       <c r="I61" s="8"/>
-      <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="15">
         <v>57</v>
       </c>
       <c r="B62" s="16">
-        <v>37212</v>
-      </c>
-      <c r="C62" s="15" t="str">
-        <f>_xlfn.CONCAT(D62,B62)</f>
-        <v>101030400437212</v>
+        <v>37178</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="D62" s="15">
         <v>1010304004</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>324</v>
+        <v>36</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>11</v>
@@ -6228,20 +6249,19 @@
         <v>58</v>
       </c>
       <c r="B63" s="16">
-        <v>37213</v>
-      </c>
-      <c r="C63" s="15" t="str">
-        <f>_xlfn.CONCAT(D63,B63)</f>
-        <v>101030400437213</v>
+        <v>37165</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="D63" s="15">
         <v>1010304004</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="7">
@@ -6255,16 +6275,17 @@
         <v>59</v>
       </c>
       <c r="B64" s="16">
-        <v>37229</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>171</v>
+        <v>37212</v>
+      </c>
+      <c r="C64" s="15" t="str">
+        <f>_xlfn.CONCAT(D64,B64)</f>
+        <v>101030400437212</v>
       </c>
       <c r="D64" s="15">
         <v>1010304004</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>11</v>
@@ -6281,20 +6302,20 @@
         <v>60</v>
       </c>
       <c r="B65" s="16">
-        <v>37230</v>
+        <v>37213</v>
       </c>
       <c r="C65" s="15" t="str">
         <f>_xlfn.CONCAT(D65,B65)</f>
-        <v>101030400437230</v>
+        <v>101030400437213</v>
       </c>
       <c r="D65" s="15">
         <v>1010304004</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="7">
@@ -6308,20 +6329,19 @@
         <v>61</v>
       </c>
       <c r="B66" s="16">
-        <v>37231</v>
-      </c>
-      <c r="C66" s="15" t="str">
-        <f>_xlfn.CONCAT(D66,B66)</f>
-        <v>101030400437231</v>
+        <v>37229</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="D66" s="15">
         <v>1010304004</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>350</v>
+        <v>48</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="7">
@@ -6335,16 +6355,17 @@
         <v>62</v>
       </c>
       <c r="B67" s="16">
-        <v>37150</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>172</v>
+        <v>37230</v>
+      </c>
+      <c r="C67" s="15" t="str">
+        <f>_xlfn.CONCAT(D67,B67)</f>
+        <v>101030400437230</v>
       </c>
       <c r="D67" s="15">
         <v>1010304004</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>11</v>
@@ -6361,19 +6382,20 @@
         <v>63</v>
       </c>
       <c r="B68" s="16">
-        <v>37145</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>173</v>
+        <v>37231</v>
+      </c>
+      <c r="C68" s="15" t="str">
+        <f>_xlfn.CONCAT(D68,B68)</f>
+        <v>101030400437231</v>
       </c>
       <c r="D68" s="15">
         <v>1010304004</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="7">
@@ -6387,17 +6409,16 @@
         <v>64</v>
       </c>
       <c r="B69" s="16">
-        <v>37207</v>
-      </c>
-      <c r="C69" s="15" t="str">
-        <f t="shared" ref="C69:C76" si="5">_xlfn.CONCAT(D69,B69)</f>
-        <v>101030400437207</v>
+        <v>37150</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="D69" s="15">
         <v>1010304004</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>326</v>
+        <v>33</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>11</v>
@@ -6414,17 +6435,16 @@
         <v>65</v>
       </c>
       <c r="B70" s="16">
-        <v>37208</v>
-      </c>
-      <c r="C70" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>101030400437208</v>
+        <v>37145</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="D70" s="15">
         <v>1010304004</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>11</v>
@@ -6441,17 +6461,17 @@
         <v>66</v>
       </c>
       <c r="B71" s="16">
-        <v>37395</v>
+        <v>37207</v>
       </c>
       <c r="C71" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>101030400437395</v>
+        <f t="shared" ref="C71:C78" si="5">_xlfn.CONCAT(D71,B71)</f>
+        <v>101030400437207</v>
       </c>
       <c r="D71" s="15">
         <v>1010304004</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>11</v>
@@ -6468,17 +6488,17 @@
         <v>67</v>
       </c>
       <c r="B72" s="16">
-        <v>37396</v>
+        <v>37208</v>
       </c>
       <c r="C72" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>101030400437396</v>
+        <v>101030400437208</v>
       </c>
       <c r="D72" s="15">
         <v>1010304004</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>11</v>
@@ -6495,17 +6515,17 @@
         <v>68</v>
       </c>
       <c r="B73" s="16">
-        <v>37232</v>
+        <v>37395</v>
       </c>
       <c r="C73" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>101030400437232</v>
+        <v>101030400437395</v>
       </c>
       <c r="D73" s="15">
         <v>1010304004</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>11</v>
@@ -6522,17 +6542,17 @@
         <v>69</v>
       </c>
       <c r="B74" s="16">
-        <v>37233</v>
+        <v>37396</v>
       </c>
       <c r="C74" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>101030400437233</v>
+        <v>101030400437396</v>
       </c>
       <c r="D74" s="15">
         <v>1010304004</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>11</v>
@@ -6549,17 +6569,17 @@
         <v>70</v>
       </c>
       <c r="B75" s="16">
-        <v>37401</v>
+        <v>37232</v>
       </c>
       <c r="C75" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>101030400437401</v>
+        <v>101030400437232</v>
       </c>
       <c r="D75" s="15">
         <v>1010304004</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>11</v>
@@ -6576,17 +6596,17 @@
         <v>71</v>
       </c>
       <c r="B76" s="16">
-        <v>37402</v>
+        <v>37233</v>
       </c>
       <c r="C76" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>101030400437402</v>
+        <v>101030400437233</v>
       </c>
       <c r="D76" s="15">
         <v>1010304004</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>11</v>
@@ -6603,16 +6623,17 @@
         <v>72</v>
       </c>
       <c r="B77" s="16">
-        <v>370808</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>353</v>
+        <v>37401</v>
+      </c>
+      <c r="C77" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>101030400437401</v>
       </c>
       <c r="D77" s="15">
         <v>1010304004</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>11</v>
@@ -6629,16 +6650,17 @@
         <v>73</v>
       </c>
       <c r="B78" s="16">
-        <v>37181</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>174</v>
+        <v>37402</v>
+      </c>
+      <c r="C78" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>101030400437402</v>
       </c>
       <c r="D78" s="15">
         <v>1010304004</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>11</v>
@@ -6655,16 +6677,16 @@
         <v>74</v>
       </c>
       <c r="B79" s="16">
-        <v>37191</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>175</v>
+        <v>370808</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="D79" s="15">
         <v>1010304004</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>11</v>
@@ -6681,16 +6703,16 @@
         <v>75</v>
       </c>
       <c r="B80" s="16">
-        <v>37182</v>
+        <v>37181</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D80" s="15">
         <v>1010304004</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>11</v>
@@ -6702,21 +6724,21 @@
       <c r="I80" s="8"/>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="1:10" s="12" customFormat="1" ht="13.2">
+    <row r="81" spans="1:10">
       <c r="A81" s="15">
         <v>76</v>
       </c>
       <c r="B81" s="16">
-        <v>37180</v>
+        <v>37191</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D81" s="15">
         <v>1010304004</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>11</v>
@@ -6726,22 +6748,23 @@
         <v>0</v>
       </c>
       <c r="I81" s="8"/>
+      <c r="J81" s="6"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="15">
         <v>77</v>
       </c>
       <c r="B82" s="16">
-        <v>37237</v>
+        <v>37182</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D82" s="15">
-        <v>1010304006</v>
+        <v>1010304004</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>11</v>
@@ -6758,16 +6781,16 @@
         <v>78</v>
       </c>
       <c r="B83" s="16">
-        <v>37236</v>
+        <v>37180</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D83" s="15">
-        <v>1010304006</v>
+        <v>1010304004</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>11</v>
@@ -6783,67 +6806,146 @@
         <v>79</v>
       </c>
       <c r="B84" s="16">
-        <v>37280</v>
+        <v>37237</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D84" s="15">
-        <v>1010306010</v>
+        <v>1010304006</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>117</v>
+        <v>360</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="15"/>
+        <v>364</v>
+      </c>
+      <c r="G84" s="18"/>
       <c r="H84" s="7">
         <v>0</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="1:10" s="12" customFormat="1" ht="13.2">
+    <row r="85" spans="1:10">
       <c r="A85" s="15">
         <v>80</v>
       </c>
       <c r="B85" s="16">
-        <v>37282</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>193</v>
+        <v>40000</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>365</v>
       </c>
       <c r="D85" s="15">
-        <v>1010306010</v>
+        <v>1010304006</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>118</v>
+        <v>361</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="15"/>
+        <v>364</v>
+      </c>
+      <c r="G85" s="18"/>
       <c r="H85" s="7">
         <v>0</v>
       </c>
       <c r="I85" s="8"/>
+      <c r="J85" s="24"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="15">
+        <v>81</v>
+      </c>
+      <c r="B86" s="16">
+        <v>40001</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D86" s="15">
+        <v>1010304006</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="G86" s="18"/>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="8"/>
+      <c r="J86" s="24"/>
+    </row>
+    <row r="87" spans="1:10" ht="15" customHeight="1">
+      <c r="A87" s="15">
+        <v>82</v>
+      </c>
+      <c r="B87" s="16">
+        <v>40002</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D87" s="15">
+        <v>1010304006</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="G87" s="18"/>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="8"/>
+      <c r="J87" s="24"/>
+    </row>
+    <row r="88" spans="1:10" s="12" customFormat="1" ht="13.2">
+      <c r="A88" s="15">
+        <v>83</v>
+      </c>
+      <c r="B88" s="16">
+        <v>37236</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="15">
+        <v>1010304006</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="G88" s="18"/>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:I81" xr:uid="{C53612C0-DDF2-4350-AF4D-75C247024156}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I83">
-      <sortCondition ref="E5:E81"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c8JaQqHrxh9zfAqamRGHb6uJjZcpmgEKlwFK7PeLz4604DbNxZ38rU5lvzEpqQNdl4538xCzJxR88b1B/+RzRg==" saltValue="mnn4XTRrm/idIQ8UKzPyfw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A5:I83" xr:uid="{C53612C0-DDF2-4350-AF4D-75C247024156}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I85">
+      <sortCondition ref="E5:E83"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:H78">
-    <sortCondition ref="E11:E78"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:H80">
+    <sortCondition ref="E13:E80"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C4:I4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1 - 10000" sqref="H6:H85" xr:uid="{05F925E5-B2E1-461C-B428-F98D458C2F4D}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1 - 10000" sqref="H6:H88" xr:uid="{05F925E5-B2E1-461C-B428-F98D458C2F4D}">
       <formula1>1</formula1>
       <formula2>10000</formula2>
     </dataValidation>

--- a/public/format/format_permintaan_atk.xlsx
+++ b/public/format/format_permintaan_atk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfahm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfahm\Documents\GitHub\siporsat_v1\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A668D127-30A9-4F76-899D-3176D4AFCB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB159BB1-566F-434E-B7A0-7A1C4785768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="372">
   <si>
     <t>id_atk</t>
   </si>
@@ -364,9 +364,6 @@
     <t>Post-It Pronto Warna Mark n Note</t>
   </si>
   <si>
-    <t>PP Pocket / Isi Clear Holder 10 Pcs</t>
-  </si>
-  <si>
     <t>Spidol Permanen No. G-12 (Doz)</t>
   </si>
   <si>
@@ -1139,6 +1136,15 @@
   </si>
   <si>
     <t>USB Port / USB Hub</t>
+  </si>
+  <si>
+    <t>Isi Clear Holder Plastik A4</t>
+  </si>
+  <si>
+    <t>Isi Clear Holder Plastik F4</t>
+  </si>
+  <si>
+    <t>1010301006370865</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,7 +1325,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1634,21 +1639,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="13" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="11.21875" style="12" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="13" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="38.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" style="13" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" style="12" customWidth="1"/>
     <col min="9" max="9" width="35.44140625" style="12" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="12" hidden="1" customWidth="1"/>
@@ -1753,7 +1758,7 @@
         <v>38000</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="15">
         <v>1010302004</v>
@@ -1778,7 +1783,7 @@
         <v>38001</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="15">
         <v>1010302004</v>
@@ -1803,7 +1808,7 @@
         <v>38002</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="15">
         <v>1010302004</v>
@@ -1828,13 +1833,13 @@
         <v>38009</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="15">
         <v>1010301001</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>6</v>
@@ -1853,13 +1858,13 @@
         <v>37006</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="15">
         <v>1010301001</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>6</v>
@@ -1878,7 +1883,7 @@
         <v>38003</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="15">
         <v>1010301001</v>
@@ -1903,7 +1908,7 @@
         <v>38004</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="15">
         <v>1010301001</v>
@@ -1928,7 +1933,7 @@
         <v>38005</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="15">
         <v>1010301001</v>
@@ -1953,7 +1958,7 @@
         <v>37016</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="15">
         <v>1010301001</v>
@@ -1978,7 +1983,7 @@
         <v>38006</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="15">
         <v>1010301001</v>
@@ -2003,7 +2008,7 @@
         <v>38007</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="15">
         <v>1010301001</v>
@@ -2028,13 +2033,13 @@
         <v>37021</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="15">
         <v>1010301001</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>6</v>
@@ -2053,7 +2058,7 @@
         <v>38008</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="15">
         <v>1010301001</v>
@@ -2078,7 +2083,7 @@
         <v>37039</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D19" s="15">
         <v>1010301003</v>
@@ -2087,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7">
@@ -2103,16 +2108,16 @@
         <v>37027</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="15">
         <v>1010301003</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="7">
@@ -2128,16 +2133,16 @@
         <v>37028</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D21" s="15">
         <v>1010301003</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7">
@@ -2153,16 +2158,16 @@
         <v>37029</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="15">
         <v>1010301003</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7">
@@ -2178,16 +2183,16 @@
         <v>37030</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="15">
         <v>1010301003</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="7">
@@ -2203,16 +2208,16 @@
         <v>37031</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D24" s="15">
         <v>1010301003</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="7">
@@ -2228,16 +2233,16 @@
         <v>37042</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D25" s="15">
         <v>1010301003</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="7">
@@ -2253,7 +2258,7 @@
         <v>370785</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="15">
         <v>1010301003</v>
@@ -2262,7 +2267,7 @@
         <v>51</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="7">
@@ -2278,7 +2283,7 @@
         <v>38010</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D27" s="15">
         <v>1010301999</v>
@@ -2303,7 +2308,7 @@
         <v>38011</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D28" s="15">
         <v>1010301999</v>
@@ -2328,7 +2333,7 @@
         <v>38012</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D29" s="15">
         <v>1010301999</v>
@@ -2353,7 +2358,7 @@
         <v>38013</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D30" s="15">
         <v>1010301999</v>
@@ -2378,7 +2383,7 @@
         <v>37064</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D31" s="15">
         <v>1010301006</v>
@@ -2403,7 +2408,7 @@
         <v>37083</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D32" s="15">
         <v>1010301008</v>
@@ -2428,7 +2433,7 @@
         <v>37082</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D33" s="15">
         <v>1010301008</v>
@@ -2453,7 +2458,7 @@
         <v>38014</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D34" s="15">
         <v>1010301010</v>
@@ -2478,7 +2483,7 @@
         <v>38015</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D35" s="15">
         <v>1010301010</v>
@@ -2503,7 +2508,7 @@
         <v>38016</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D36" s="15">
         <v>1010301010</v>
@@ -2528,13 +2533,13 @@
         <v>37375</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37" s="15">
         <v>1010301999</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>11</v>
@@ -2553,13 +2558,13 @@
         <v>37111</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" s="15">
         <v>1010301999</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>11</v>
@@ -2578,13 +2583,13 @@
         <v>37101</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D39" s="15">
         <v>1010301013</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>4</v>
@@ -2603,13 +2608,13 @@
         <v>37100</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D40" s="15">
         <v>1010301013</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>4</v>
@@ -2634,7 +2639,7 @@
         <v>1010302001</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>4</v>
@@ -2653,7 +2658,7 @@
         <v>37125</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D42" s="15">
         <v>1010302001</v>
@@ -2703,7 +2708,7 @@
         <v>37122</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D44" s="15">
         <v>1010302001</v>
@@ -2728,7 +2733,7 @@
         <v>38017</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D45" s="15">
         <v>1010302001</v>
@@ -2778,7 +2783,7 @@
         <v>37121</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D47" s="15">
         <v>1010302001</v>
@@ -2803,7 +2808,7 @@
         <v>38018</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" s="15">
         <v>1010302001</v>
@@ -2828,7 +2833,7 @@
         <v>37135</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D49" s="15">
         <v>1010301999</v>
@@ -2853,7 +2858,7 @@
         <v>37138</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D50" s="15">
         <v>1010301999</v>
@@ -2878,13 +2883,13 @@
         <v>37382</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D51" s="15">
         <v>1010301010</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>4</v>
@@ -2903,13 +2908,13 @@
         <v>37383</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D52" s="15">
         <v>1010301010</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>4</v>
@@ -2928,13 +2933,13 @@
         <v>37384</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D53" s="15">
         <v>1010301010</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>4</v>
@@ -2953,13 +2958,13 @@
         <v>37385</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D54" s="15">
         <v>1010301010</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>4</v>
@@ -2978,13 +2983,13 @@
         <v>370790</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D55" s="15">
         <v>1010301010</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>4</v>
@@ -3003,13 +3008,13 @@
         <v>37386</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D56" s="15">
         <v>1010301010</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>4</v>
@@ -3028,7 +3033,7 @@
         <v>38019</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D57" s="15">
         <v>1010301010</v>
@@ -3053,7 +3058,7 @@
         <v>38020</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D58" s="15">
         <v>1010301010</v>
@@ -3078,7 +3083,7 @@
         <v>38021</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D59" s="15">
         <v>1010301010</v>
@@ -3103,7 +3108,7 @@
         <v>38022</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D60" s="15">
         <v>1010301010</v>
@@ -3128,7 +3133,7 @@
         <v>38023</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D61" s="15">
         <v>1010301010</v>
@@ -3153,7 +3158,7 @@
         <v>38024</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D62" s="15">
         <v>1010301010</v>
@@ -3178,7 +3183,7 @@
         <v>38025</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D63" s="15">
         <v>1010301010</v>
@@ -3203,7 +3208,7 @@
         <v>38026</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D64" s="15">
         <v>1010301010</v>
@@ -3228,13 +3233,13 @@
         <v>37085</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D65" s="15">
         <v>1010301010</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>11</v>
@@ -3253,13 +3258,13 @@
         <v>37373</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D66" s="15">
         <v>1010301010</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>11</v>
@@ -3284,7 +3289,7 @@
         <v>1010301006</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>7</v>
@@ -3303,13 +3308,13 @@
         <v>370798</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D68" s="15">
         <v>1010301006</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>7</v>
@@ -3328,13 +3333,13 @@
         <v>37065</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D69" s="15">
         <v>1010301006</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>11</v>
@@ -3353,7 +3358,7 @@
         <v>37061</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D70" s="15">
         <v>1010301006</v>
@@ -3378,7 +3383,7 @@
         <v>37071</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D71" s="15">
         <v>1010301006</v>
@@ -3403,13 +3408,13 @@
         <v>38027</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D72" s="15">
         <v>1010301006</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>4</v>
@@ -3428,13 +3433,13 @@
         <v>370812</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D73" s="15">
         <v>1010301006</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>6</v>
@@ -3453,13 +3458,13 @@
         <v>370813</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D74" s="15">
         <v>1010301006</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>6</v>
@@ -3478,7 +3483,7 @@
         <v>38028</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D75" s="15">
         <v>1010301006</v>
@@ -3503,7 +3508,7 @@
         <v>38029</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D76" s="15">
         <v>1010301006</v>
@@ -3528,13 +3533,13 @@
         <v>37063</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D77" s="15">
         <v>1010301006</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>11</v>
@@ -3553,13 +3558,13 @@
         <v>370784</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D78" s="15">
         <v>1010301006</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>11</v>
@@ -3578,7 +3583,7 @@
         <v>38030</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D79" s="15">
         <v>1010301006</v>
@@ -3603,7 +3608,7 @@
         <v>38031</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D80" s="15">
         <v>1010301006</v>
@@ -3628,7 +3633,7 @@
         <v>38032</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D81" s="15">
         <v>1010301006</v>
@@ -3653,13 +3658,13 @@
         <v>370861</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D82" s="15">
         <v>1010301006</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>11</v>
@@ -3678,13 +3683,13 @@
         <v>37062</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D83" s="15">
         <v>1010301006</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>11</v>
@@ -3703,13 +3708,13 @@
         <v>370773</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D84" s="15">
         <v>1010301003</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>4</v>
@@ -3728,13 +3733,13 @@
         <v>370782</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="15">
         <v>1010301003</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>4</v>
@@ -3753,13 +3758,13 @@
         <v>370774</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" s="15">
         <v>1010301003</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>4</v>
@@ -3778,13 +3783,13 @@
         <v>37032</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="15">
         <v>1010301003</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>4</v>
@@ -3803,7 +3808,7 @@
         <v>37078</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="15">
         <v>1010301007</v>
@@ -3828,7 +3833,7 @@
         <v>37080</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="15">
         <v>1010301007</v>
@@ -3853,13 +3858,13 @@
         <v>37081</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="15">
         <v>1010301007</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F90" s="15" t="s">
         <v>11</v>
@@ -3878,13 +3883,13 @@
         <v>370818</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="15">
         <v>1010301004</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>11</v>
@@ -3903,7 +3908,7 @@
         <v>38033</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="15">
         <v>1010301004</v>
@@ -3928,7 +3933,7 @@
         <v>38034</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="15">
         <v>1010301001</v>
@@ -3953,7 +3958,7 @@
         <v>38035</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="15">
         <v>1010301999</v>
@@ -3978,13 +3983,13 @@
         <v>38036</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="15">
         <v>1010301999</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>108</v>
@@ -4003,7 +4008,7 @@
         <v>38037</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="15">
         <v>1010301999</v>
@@ -4028,7 +4033,7 @@
         <v>38038</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" s="15">
         <v>1010301999</v>
@@ -4053,7 +4058,7 @@
         <v>38039</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D98" s="15">
         <v>1010301999</v>
@@ -4078,7 +4083,7 @@
         <v>38040</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D99" s="15">
         <v>1010301999</v>
@@ -4103,7 +4108,7 @@
         <v>38041</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D100" s="15">
         <v>1010301999</v>
@@ -4128,7 +4133,7 @@
         <v>370815</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D101" s="15">
         <v>1010301999</v>
@@ -4153,18 +4158,18 @@
         <v>38042</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D102" s="15">
         <v>1010301999</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>111</v>
+        <v>369</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G102" s="15"/>
+      <c r="G102" s="16"/>
       <c r="H102" s="7">
         <v>0</v>
       </c>
@@ -4175,19 +4180,17 @@
         <v>98</v>
       </c>
       <c r="B103" s="16">
-        <v>37008</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D103" s="15">
-        <v>1010301001</v>
-      </c>
+        <v>370865</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D103" s="15"/>
       <c r="E103" s="16" t="s">
-        <v>142</v>
+        <v>370</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="7">
@@ -4200,16 +4203,16 @@
         <v>99</v>
       </c>
       <c r="B104" s="16">
-        <v>370816</v>
+        <v>37008</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D104" s="15">
         <v>1010301001</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>11</v>
@@ -4225,19 +4228,19 @@
         <v>100</v>
       </c>
       <c r="B105" s="16">
-        <v>37020</v>
+        <v>370816</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D105" s="15">
         <v>1010301001</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="7">
@@ -4250,19 +4253,19 @@
         <v>101</v>
       </c>
       <c r="B106" s="16">
-        <v>370862</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>274</v>
+        <v>37020</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="D106" s="15">
         <v>1010301001</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>358</v>
+        <v>143</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="G106" s="15"/>
       <c r="H106" s="7">
@@ -4275,19 +4278,19 @@
         <v>102</v>
       </c>
       <c r="B107" s="16">
-        <v>38044</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>275</v>
+        <v>370862</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="D107" s="15">
         <v>1010301001</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>112</v>
+        <v>357</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="G107" s="15"/>
       <c r="H107" s="7">
@@ -4300,19 +4303,19 @@
         <v>103</v>
       </c>
       <c r="B108" s="16">
-        <v>370819</v>
+        <v>38044</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D108" s="15">
         <v>1010301001</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G108" s="15"/>
       <c r="H108" s="7">
@@ -4325,19 +4328,19 @@
         <v>104</v>
       </c>
       <c r="B109" s="16">
-        <v>37387</v>
+        <v>370819</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D109" s="15">
         <v>1010301001</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="G109" s="15"/>
       <c r="H109" s="7">
@@ -4350,16 +4353,16 @@
         <v>105</v>
       </c>
       <c r="B110" s="16">
-        <v>37003</v>
+        <v>37387</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D110" s="15">
         <v>1010301001</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="F110" s="15" t="s">
         <v>11</v>
@@ -4375,16 +4378,16 @@
         <v>106</v>
       </c>
       <c r="B111" s="16">
-        <v>37379</v>
+        <v>37003</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D111" s="15">
-        <v>1010301999</v>
+        <v>1010301001</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F111" s="15" t="s">
         <v>11</v>
@@ -4400,16 +4403,16 @@
         <v>107</v>
       </c>
       <c r="B112" s="16">
-        <v>37099</v>
+        <v>37379</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D112" s="15">
         <v>1010301999</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>11</v>
@@ -4425,16 +4428,16 @@
         <v>108</v>
       </c>
       <c r="B113" s="16">
-        <v>37098</v>
+        <v>37099</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D113" s="15">
         <v>1010301999</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>11</v>
@@ -4450,19 +4453,19 @@
         <v>109</v>
       </c>
       <c r="B114" s="16">
-        <v>38045</v>
+        <v>37098</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D114" s="15">
         <v>1010301999</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G114" s="15"/>
       <c r="H114" s="7">
@@ -4475,19 +4478,19 @@
         <v>110</v>
       </c>
       <c r="B115" s="16">
-        <v>38046</v>
+        <v>38045</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D115" s="15">
         <v>1010301999</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="7">
@@ -4500,19 +4503,19 @@
         <v>111</v>
       </c>
       <c r="B116" s="16">
-        <v>37323</v>
+        <v>38046</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="D116" s="15">
         <v>1010301999</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="7">
@@ -4525,16 +4528,16 @@
         <v>112</v>
       </c>
       <c r="B117" s="16">
-        <v>37025</v>
+        <v>37323</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="D117" s="15">
         <v>1010301999</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="F117" s="15" t="s">
         <v>11</v>
@@ -4550,16 +4553,16 @@
         <v>113</v>
       </c>
       <c r="B118" s="16">
-        <v>370805</v>
+        <v>37025</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D118" s="15">
-        <v>1010301004</v>
+        <v>1010301999</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="F118" s="15" t="s">
         <v>11</v>
@@ -4575,16 +4578,16 @@
         <v>114</v>
       </c>
       <c r="B119" s="16">
-        <v>37046</v>
+        <v>370805</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D119" s="15">
         <v>1010301004</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>11</v>
@@ -4595,8 +4598,33 @@
       </c>
       <c r="I119" s="8"/>
     </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="15">
+        <v>115</v>
+      </c>
+      <c r="B120" s="16">
+        <v>37046</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" s="15">
+        <v>1010301004</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="15"/>
+      <c r="H120" s="7">
+        <v>0</v>
+      </c>
+      <c r="I120" s="8"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8QSNdoX7zYrq/QkGdW43tYlKO4JHov+EuPMNRWzuLIN0agn7WkW0f6E2Sae7GZKKBjt+c/AcGU4w14xVTcHNSQ==" saltValue="gmixAQLlLwObhm1L1ORyxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="doAF1zuTv7ClLmGt6DtQnT6ztoZvu391WivXA1GKj45x0l+x1wY8fJUYlaAuHC37LEZM2Q+0C3TkMkvo/4mx2Q==" saltValue="XvMLKbdenHGOvJiVrjLCaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A5:G48" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G117">
       <sortCondition ref="E5:E48"/>
@@ -4606,8 +4634,8 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C4:I4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1 - 10000" sqref="H6:H119" xr:uid="{B22B4A9C-92FE-4D11-9D5F-68C69E9FBC18}">
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1 - 10000" sqref="H6:H120" xr:uid="{B22B4A9C-92FE-4D11-9D5F-68C69E9FBC18}">
       <formula1>1</formula1>
       <formula2>10000</formula2>
     </dataValidation>
@@ -4738,13 +4766,13 @@
         <v>37280</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="15">
         <v>1010306010</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>13</v>
@@ -4764,13 +4792,13 @@
         <v>37282</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="15">
         <v>1010306010</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>13</v>
@@ -4789,7 +4817,7 @@
         <v>37239</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D8" s="15">
         <v>1010304010</v>
@@ -4814,13 +4842,13 @@
         <v>38047</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="15">
         <v>1010304004</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>13</v>
@@ -4839,13 +4867,13 @@
         <v>370807</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="15">
         <v>1010304004</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>11</v>
@@ -4871,7 +4899,7 @@
         <v>1010304004</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>11</v>
@@ -4897,7 +4925,7 @@
         <v>1010304004</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>13</v>
@@ -4923,7 +4951,7 @@
         <v>1010304004</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>11</v>
@@ -4950,7 +4978,7 @@
         <v>1010304004</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>13</v>
@@ -4977,7 +5005,7 @@
         <v>1010304004</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>11</v>
@@ -5004,7 +5032,7 @@
         <v>1010304004</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>13</v>
@@ -5024,13 +5052,13 @@
         <v>370853</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D17" s="15">
         <v>1010304004</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>11</v>
@@ -5050,13 +5078,13 @@
         <v>370854</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D18" s="15">
         <v>1010304004</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>13</v>
@@ -5083,7 +5111,7 @@
         <v>1010304004</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>11</v>
@@ -5110,7 +5138,7 @@
         <v>1010304004</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>13</v>
@@ -5137,7 +5165,7 @@
         <v>1010304004</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>11</v>
@@ -5164,7 +5192,7 @@
         <v>1010304004</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>13</v>
@@ -5191,7 +5219,7 @@
         <v>1010304004</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>11</v>
@@ -5218,7 +5246,7 @@
         <v>1010304004</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>13</v>
@@ -5245,7 +5273,7 @@
         <v>1010304004</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>11</v>
@@ -5272,7 +5300,7 @@
         <v>1010304004</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>13</v>
@@ -5292,7 +5320,7 @@
         <v>37199</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="15">
         <v>1010304004</v>
@@ -5318,7 +5346,7 @@
         <v>37200</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="15">
         <v>1010304004</v>
@@ -5344,7 +5372,7 @@
         <v>37201</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="15">
         <v>1010304004</v>
@@ -5370,7 +5398,7 @@
         <v>37156</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="15">
         <v>1010304004</v>
@@ -5396,7 +5424,7 @@
         <v>37214</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D31" s="15">
         <v>1010304004</v>
@@ -5429,7 +5457,7 @@
         <v>1010304004</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>11</v>
@@ -5456,7 +5484,7 @@
         <v>1010304004</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>13</v>
@@ -5483,7 +5511,7 @@
         <v>1010304004</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>11</v>
@@ -5510,7 +5538,7 @@
         <v>1010304004</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>13</v>
@@ -5537,7 +5565,7 @@
         <v>1010304004</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>11</v>
@@ -5564,7 +5592,7 @@
         <v>1010304004</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>11</v>
@@ -5591,7 +5619,7 @@
         <v>1010304004</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>11</v>
@@ -5618,7 +5646,7 @@
         <v>1010304004</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>11</v>
@@ -5645,7 +5673,7 @@
         <v>1010304004</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>11</v>
@@ -5672,7 +5700,7 @@
         <v>1010304004</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>13</v>
@@ -5692,7 +5720,7 @@
         <v>37217</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" s="15">
         <v>1010304004</v>
@@ -5718,7 +5746,7 @@
         <v>37218</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="15">
         <v>1010304004</v>
@@ -5751,7 +5779,7 @@
         <v>1010304004</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>11</v>
@@ -5778,7 +5806,7 @@
         <v>1010304004</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>13</v>
@@ -5805,7 +5833,7 @@
         <v>1010304004</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>11</v>
@@ -5832,7 +5860,7 @@
         <v>1010304004</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>13</v>
@@ -5859,7 +5887,7 @@
         <v>1010304004</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>11</v>
@@ -5886,7 +5914,7 @@
         <v>1010304004</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>13</v>
@@ -5906,13 +5934,13 @@
         <v>37202</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D50" s="15">
         <v>1010304004</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>11</v>
@@ -5939,7 +5967,7 @@
         <v>1010304004</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>11</v>
@@ -5966,7 +5994,7 @@
         <v>1010304004</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>13</v>
@@ -5993,7 +6021,7 @@
         <v>1010304004</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>11</v>
@@ -6020,7 +6048,7 @@
         <v>1010304004</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>13</v>
@@ -6040,7 +6068,7 @@
         <v>37185</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="15">
         <v>1010304004</v>
@@ -6073,7 +6101,7 @@
         <v>1010304004</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>11</v>
@@ -6100,7 +6128,7 @@
         <v>1010304004</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>13</v>
@@ -6127,7 +6155,7 @@
         <v>1010304004</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>11</v>
@@ -6154,7 +6182,7 @@
         <v>1010304004</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>13</v>
@@ -6181,7 +6209,7 @@
         <v>1010304004</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>11</v>
@@ -6207,7 +6235,7 @@
         <v>1010304004</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>13</v>
@@ -6226,7 +6254,7 @@
         <v>37178</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D62" s="15">
         <v>1010304004</v>
@@ -6252,7 +6280,7 @@
         <v>37165</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63" s="15">
         <v>1010304004</v>
@@ -6285,7 +6313,7 @@
         <v>1010304004</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>11</v>
@@ -6312,7 +6340,7 @@
         <v>1010304004</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>13</v>
@@ -6332,7 +6360,7 @@
         <v>37229</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D66" s="15">
         <v>1010304004</v>
@@ -6365,7 +6393,7 @@
         <v>1010304004</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>11</v>
@@ -6392,7 +6420,7 @@
         <v>1010304004</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>13</v>
@@ -6412,7 +6440,7 @@
         <v>37150</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D69" s="15">
         <v>1010304004</v>
@@ -6438,7 +6466,7 @@
         <v>37145</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D70" s="15">
         <v>1010304004</v>
@@ -6471,7 +6499,7 @@
         <v>1010304004</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>11</v>
@@ -6498,7 +6526,7 @@
         <v>1010304004</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>11</v>
@@ -6525,7 +6553,7 @@
         <v>1010304004</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>11</v>
@@ -6552,7 +6580,7 @@
         <v>1010304004</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>11</v>
@@ -6579,7 +6607,7 @@
         <v>1010304004</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>11</v>
@@ -6606,7 +6634,7 @@
         <v>1010304004</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>11</v>
@@ -6633,7 +6661,7 @@
         <v>1010304004</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>11</v>
@@ -6660,7 +6688,7 @@
         <v>1010304004</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>11</v>
@@ -6680,13 +6708,13 @@
         <v>370808</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D79" s="15">
         <v>1010304004</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>11</v>
@@ -6706,7 +6734,7 @@
         <v>37181</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D80" s="15">
         <v>1010304004</v>
@@ -6732,7 +6760,7 @@
         <v>37191</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D81" s="15">
         <v>1010304004</v>
@@ -6758,7 +6786,7 @@
         <v>37182</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D82" s="15">
         <v>1010304004</v>
@@ -6784,7 +6812,7 @@
         <v>37180</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D83" s="15">
         <v>1010304004</v>
@@ -6809,16 +6837,16 @@
         <v>37237</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D84" s="15">
         <v>1010304006</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="7">
@@ -6835,23 +6863,23 @@
         <v>40000</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D85" s="15">
         <v>1010304006</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="7">
         <v>0</v>
       </c>
       <c r="I85" s="8"/>
-      <c r="J85" s="24"/>
+      <c r="J85" s="17"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="15">
@@ -6861,23 +6889,23 @@
         <v>40001</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D86" s="15">
         <v>1010304006</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="7">
         <v>0</v>
       </c>
       <c r="I86" s="8"/>
-      <c r="J86" s="24"/>
+      <c r="J86" s="17"/>
     </row>
     <row r="87" spans="1:10" ht="15" customHeight="1">
       <c r="A87" s="15">
@@ -6887,23 +6915,23 @@
         <v>40002</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D87" s="15">
         <v>1010304006</v>
       </c>
       <c r="E87" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="F87" s="15" t="s">
         <v>363</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>364</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="7">
         <v>0</v>
       </c>
       <c r="I87" s="8"/>
-      <c r="J87" s="24"/>
+      <c r="J87" s="17"/>
     </row>
     <row r="88" spans="1:10" s="12" customFormat="1" ht="13.2">
       <c r="A88" s="15">
@@ -6913,16 +6941,16 @@
         <v>37236</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D88" s="15">
         <v>1010304006</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="7">

--- a/public/format/format_permintaan_atk.xlsx
+++ b/public/format/format_permintaan_atk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfahm\Documents\GitHub\siporsat_v1\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65F68A1-3713-442C-AFBF-307359F4CD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2D247C-264A-49C9-9BC4-6001058408DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alkom!$A$5:$I$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atk!$A$5:$G$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atk!$A$5:$G$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="395">
   <si>
     <t>id_atk</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Map Hanging</t>
   </si>
   <si>
-    <t>Map PP Pocket Plastik</t>
-  </si>
-  <si>
     <t>Penggaris Besi 30cm</t>
   </si>
   <si>
@@ -117,12 +114,6 @@
     <t>Kertas Glosy</t>
   </si>
   <si>
-    <t>Kop Surat Setjen A4</t>
-  </si>
-  <si>
-    <t>Kop Surat Setjen F4</t>
-  </si>
-  <si>
     <t>Toner HP 53A</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
   </si>
   <si>
     <t>Toner HP 48A</t>
-  </si>
-  <si>
-    <t>Mouse Wireless Logitech</t>
   </si>
   <si>
     <t>Stamp Pad</t>
@@ -322,18 +310,6 @@
     <t>Lakban Bening 1 Inch</t>
   </si>
   <si>
-    <t>Lakban Bening 3 inch</t>
-  </si>
-  <si>
-    <t>Lakban Coklat 3 inch</t>
-  </si>
-  <si>
-    <t>Lakban Hitam 2 Inci</t>
-  </si>
-  <si>
-    <t>Lakban Hitam 3 Inci</t>
-  </si>
-  <si>
     <t>Lakban Kertas 1 Inch</t>
   </si>
   <si>
@@ -379,9 +355,6 @@
     <t>Ballpoint Standard AE7 (Lusin)</t>
   </si>
   <si>
-    <t>Batu Baterai AAA (Set)</t>
-  </si>
-  <si>
     <t>Gunting Besar (848)</t>
   </si>
   <si>
@@ -421,9 +394,6 @@
     <t>Lem Stick 25gr</t>
   </si>
   <si>
-    <t>Map Business File A4 (940)</t>
-  </si>
-  <si>
     <t>Map L A4</t>
   </si>
   <si>
@@ -460,9 +430,6 @@
     <t>Rautan Pensil Kecil (B-24)</t>
   </si>
   <si>
-    <t>Spidol A500 Artline Black (Doz)</t>
-  </si>
-  <si>
     <t>Spidol White Board No. BG-12 (Doz)</t>
   </si>
   <si>
@@ -478,9 +445,6 @@
     <t>Tape Dispenser (Pemotong Lakban/Isolasi)</t>
   </si>
   <si>
-    <t>Tinta Brother D60/6000/5000 (4 BCMY)</t>
-  </si>
-  <si>
     <t>Tinta Brother TN3428</t>
   </si>
   <si>
@@ -493,9 +457,6 @@
     <t>Toner HP 12A</t>
   </si>
   <si>
-    <t>101030400438047</t>
-  </si>
-  <si>
     <t>1010304004370807</t>
   </si>
   <si>
@@ -739,12 +700,6 @@
     <t>101030101037373</t>
   </si>
   <si>
-    <t>101030100637065</t>
-  </si>
-  <si>
-    <t>101030100637061</t>
-  </si>
-  <si>
     <t>101030100637071</t>
   </si>
   <si>
@@ -760,9 +715,6 @@
     <t>101030100638028</t>
   </si>
   <si>
-    <t>101030100638029</t>
-  </si>
-  <si>
     <t>101030100637063</t>
   </si>
   <si>
@@ -838,18 +790,12 @@
     <t>1010301999370815</t>
   </si>
   <si>
-    <t>101030199938042</t>
-  </si>
-  <si>
     <t>101030100137008</t>
   </si>
   <si>
     <t>1010301001370816</t>
   </si>
   <si>
-    <t>101030100137020</t>
-  </si>
-  <si>
     <t>101030100138043</t>
   </si>
   <si>
@@ -910,12 +856,6 @@
     <t>Binder Clip No. 107</t>
   </si>
   <si>
-    <t>Tinta Canon 47/57 Color (3 CMY)</t>
-  </si>
-  <si>
-    <t>Tinta Canon 47/57 Black</t>
-  </si>
-  <si>
     <t>Tinta Epson 001 Black</t>
   </si>
   <si>
@@ -940,30 +880,12 @@
     <t>Tinta Epson 673 Color (5 CMY)</t>
   </si>
   <si>
-    <t>Tinta HP 950/951 XL Black</t>
-  </si>
-  <si>
-    <t>Tinta HP GT 53/52 Black</t>
-  </si>
-  <si>
     <t>Toner Canon 331 Black</t>
   </si>
   <si>
     <t>Toner Canon 790 Black</t>
   </si>
   <si>
-    <t>Toner Canon 810/811 Black</t>
-  </si>
-  <si>
-    <t>Toner Canon 810/811 Tricolor</t>
-  </si>
-  <si>
-    <t>Toner Canon 830/831 Black</t>
-  </si>
-  <si>
-    <t>Toner Canon 830/831 Tricolor</t>
-  </si>
-  <si>
     <t>Toner Epson Aculaser Black</t>
   </si>
   <si>
@@ -1027,12 +949,6 @@
     <t>Tinta Epson 008 Color (3 CMY)</t>
   </si>
   <si>
-    <t>Tinta HP 950/951 XL Color (3 CMY)</t>
-  </si>
-  <si>
-    <t>Tinta HP GT 53/52 Color (3 CMY)</t>
-  </si>
-  <si>
     <t>Toner Canon 331 Color (3 CMY)</t>
   </si>
   <si>
@@ -1081,12 +997,6 @@
     <t>1010304004370808</t>
   </si>
   <si>
-    <t>Map Buffalo</t>
-  </si>
-  <si>
-    <t>Map Diamond</t>
-  </si>
-  <si>
     <t>1010301006370798</t>
   </si>
   <si>
@@ -1120,9 +1030,6 @@
     <t>USB Flash Disk 256 GB</t>
   </si>
   <si>
-    <t>Buah</t>
-  </si>
-  <si>
     <t>101030400640000</t>
   </si>
   <si>
@@ -1132,39 +1039,9 @@
     <t>101030400640002</t>
   </si>
   <si>
-    <t>Batu Baterai AA (1 set isi 2 pcs)</t>
-  </si>
-  <si>
     <t>USB Port / USB Hub</t>
   </si>
   <si>
-    <t>Isi Clear Holder Plastik A4</t>
-  </si>
-  <si>
-    <t>Isi Clear Holder Plastik F4</t>
-  </si>
-  <si>
-    <t>1010301006370865</t>
-  </si>
-  <si>
-    <t>Notebook A6</t>
-  </si>
-  <si>
-    <t>1010301005370866</t>
-  </si>
-  <si>
-    <t>1010301006370821</t>
-  </si>
-  <si>
-    <t>1010301006370822</t>
-  </si>
-  <si>
-    <t>Toner 215 Black</t>
-  </si>
-  <si>
-    <t>Toner 215 Color</t>
-  </si>
-  <si>
     <t>1010302005370860</t>
   </si>
   <si>
@@ -1175,6 +1052,168 @@
   </si>
   <si>
     <t>1010302005370867</t>
+  </si>
+  <si>
+    <t>Double Tape Foam</t>
+  </si>
+  <si>
+    <t>Kop Surat Setjen A4 (Lama)</t>
+  </si>
+  <si>
+    <t>Kop Surat Setjen F4 (Lama)</t>
+  </si>
+  <si>
+    <t>Kop Surat A4 Setjend Bahasa Indonesia</t>
+  </si>
+  <si>
+    <t>Kop Surat F4 Setjend Bahasa Indonesia</t>
+  </si>
+  <si>
+    <t>Lakban Hitam 2 Inch</t>
+  </si>
+  <si>
+    <t>Lakban Hitam 3 Inch</t>
+  </si>
+  <si>
+    <t>Map Buffalo Kabita</t>
+  </si>
+  <si>
+    <t>Map Buffalo Diamond</t>
+  </si>
+  <si>
+    <t>Map Business File A4</t>
+  </si>
+  <si>
+    <t>Map Buffalo PP Pocket</t>
+  </si>
+  <si>
+    <t>Map Biro Umum (Baru)</t>
+  </si>
+  <si>
+    <t>Amplop Dinas Kecil (Baru)</t>
+  </si>
+  <si>
+    <t>Amplop Dinas Besar (Baru)</t>
+  </si>
+  <si>
+    <t>PP Pocket / Isi Clear Holder 10 Pcs</t>
+  </si>
+  <si>
+    <t>Mouse M170</t>
+  </si>
+  <si>
+    <t>Mouse M220 (Silent)</t>
+  </si>
+  <si>
+    <t>Tinta Brother D60 Black</t>
+  </si>
+  <si>
+    <t>Tinta Brother 5000 Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Batu Baterai AA (Set) (1 Set @2 Pcs)</t>
+  </si>
+  <si>
+    <t>Tinta Canon 47 Black</t>
+  </si>
+  <si>
+    <t>Tinta Canon 57 Color</t>
+  </si>
+  <si>
+    <t>Tinta HP 950 XL Black</t>
+  </si>
+  <si>
+    <t>Tinta HP 951 XL Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Tinta HP GT 53 Black</t>
+  </si>
+  <si>
+    <t>Tinta HP GT 52 Color (3 CMY)</t>
+  </si>
+  <si>
+    <t>Toner Canon 810 Black</t>
+  </si>
+  <si>
+    <t>Toner Canon 811 Tricolor</t>
+  </si>
+  <si>
+    <t>Toner Canon 830 Black</t>
+  </si>
+  <si>
+    <t>Toner Canon 831 Tricolor</t>
+  </si>
+  <si>
+    <t>USB Flash Disk 32 GB OTG</t>
+  </si>
+  <si>
+    <t>USB Flash Disk 64 GB OTG</t>
+  </si>
+  <si>
+    <t>USB Flash Disk 256 GB OTG</t>
+  </si>
+  <si>
+    <t>1010302004370868</t>
+  </si>
+  <si>
+    <t>1010302004370869</t>
+  </si>
+  <si>
+    <t>1010301010370870</t>
+  </si>
+  <si>
+    <t>1010302005370871</t>
+  </si>
+  <si>
+    <t>1010302005370872</t>
+  </si>
+  <si>
+    <t>Lakban Bening 3 Inch</t>
+  </si>
+  <si>
+    <t>Lakban Coklat 3 Inch</t>
+  </si>
+  <si>
+    <t>1010301006370873</t>
+  </si>
+  <si>
+    <t>1010301006370874</t>
+  </si>
+  <si>
+    <t>1010301006370876</t>
+  </si>
+  <si>
+    <t>1010301006370875</t>
+  </si>
+  <si>
+    <t>1010301006370877</t>
+  </si>
+  <si>
+    <t>1010304010370878</t>
+  </si>
+  <si>
+    <t>1010304004370879</t>
+  </si>
+  <si>
+    <t>1010304004370880</t>
+  </si>
+  <si>
+    <t>1010304006370882</t>
+  </si>
+  <si>
+    <t>1010304006370881</t>
+  </si>
+  <si>
+    <t>1010304006370883</t>
+  </si>
+  <si>
+    <t>Batu Baterai AAA (Set) (1 Set @2 Pcs)</t>
+  </si>
+  <si>
+    <t>Blocknote A5</t>
+  </si>
+  <si>
+    <t>1010301005370884</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1342,6 +1381,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1669,17 +1719,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="12" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="12" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="12" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="13" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="38.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" style="13" bestFit="1" customWidth="1"/>
@@ -1691,21 +1741,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.95" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="A1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="11">
@@ -1720,11 +1770,11 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -1735,46 +1785,46 @@
     </row>
     <row r="4" spans="1:10" ht="54" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="C4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="26.4">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>2</v>
@@ -1785,69 +1835,69 @@
         <v>1</v>
       </c>
       <c r="B6" s="16">
-        <v>38000</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>176</v>
+        <v>370868</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>374</v>
       </c>
       <c r="D6" s="15">
         <v>1010302004</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="15">
         <v>2</v>
       </c>
       <c r="B7" s="16">
-        <v>38001</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>177</v>
+        <v>370869</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>375</v>
       </c>
       <c r="D7" s="15">
         <v>1010302004</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="15">
         <v>3</v>
       </c>
       <c r="B8" s="16">
-        <v>38002</v>
+        <v>38000</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D8" s="15">
         <v>1010302004</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
@@ -1860,19 +1910,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="16">
-        <v>38009</v>
+        <v>38001</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="D9" s="15">
-        <v>1010301001</v>
+        <v>1010302004</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>286</v>
+        <v>74</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="7">
@@ -1885,19 +1935,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="16">
-        <v>37006</v>
+        <v>38002</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D10" s="15">
-        <v>1010301001</v>
+        <v>1010302004</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="7">
@@ -1910,16 +1960,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="16">
-        <v>38003</v>
+        <v>38009</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D11" s="15">
         <v>1010301001</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>6</v>
@@ -1935,16 +1985,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="16">
-        <v>38004</v>
+        <v>37006</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D12" s="15">
         <v>1010301001</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>6</v>
@@ -1960,16 +2010,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="16">
-        <v>38005</v>
+        <v>38003</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D13" s="15">
         <v>1010301001</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>6</v>
@@ -1985,16 +2035,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="16">
-        <v>37016</v>
+        <v>38004</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D14" s="15">
         <v>1010301001</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>6</v>
@@ -2010,16 +2060,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="16">
-        <v>38006</v>
+        <v>38005</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D15" s="15">
         <v>1010301001</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>6</v>
@@ -2035,16 +2085,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="16">
-        <v>38007</v>
+        <v>37016</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D16" s="15">
         <v>1010301001</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>6</v>
@@ -2060,16 +2110,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="16">
-        <v>37021</v>
+        <v>38006</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D17" s="15">
         <v>1010301001</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>6</v>
@@ -2085,16 +2135,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="16">
-        <v>38008</v>
+        <v>38007</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D18" s="15">
         <v>1010301001</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>6</v>
@@ -2110,19 +2160,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="16">
-        <v>37039</v>
+        <v>37021</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D19" s="15">
-        <v>1010301003</v>
+        <v>1010301001</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7">
@@ -2135,19 +2185,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="16">
-        <v>37027</v>
+        <v>38008</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D20" s="15">
-        <v>1010301003</v>
+        <v>1010301001</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="7">
@@ -2160,19 +2210,19 @@
         <v>16</v>
       </c>
       <c r="B21" s="16">
-        <v>37028</v>
+        <v>37039</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D21" s="15">
         <v>1010301003</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7">
@@ -2185,19 +2235,19 @@
         <v>17</v>
       </c>
       <c r="B22" s="16">
-        <v>37029</v>
+        <v>37027</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D22" s="15">
         <v>1010301003</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7">
@@ -2210,19 +2260,19 @@
         <v>18</v>
       </c>
       <c r="B23" s="16">
-        <v>37030</v>
+        <v>37028</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D23" s="15">
         <v>1010301003</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="7">
@@ -2235,19 +2285,19 @@
         <v>19</v>
       </c>
       <c r="B24" s="16">
-        <v>37031</v>
+        <v>37029</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D24" s="15">
         <v>1010301003</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="7">
@@ -2260,19 +2310,19 @@
         <v>20</v>
       </c>
       <c r="B25" s="16">
-        <v>37042</v>
+        <v>37030</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D25" s="15">
         <v>1010301003</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="7">
@@ -2285,19 +2335,19 @@
         <v>21</v>
       </c>
       <c r="B26" s="16">
-        <v>370785</v>
+        <v>37031</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D26" s="15">
         <v>1010301003</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="7">
@@ -2310,19 +2360,19 @@
         <v>22</v>
       </c>
       <c r="B27" s="16">
-        <v>38010</v>
+        <v>37042</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D27" s="15">
-        <v>1010301999</v>
+        <v>1010301003</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="7">
@@ -2335,19 +2385,19 @@
         <v>23</v>
       </c>
       <c r="B28" s="16">
-        <v>38011</v>
+        <v>370785</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D28" s="15">
-        <v>1010301999</v>
+        <v>1010301003</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="7">
@@ -2360,16 +2410,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="16">
-        <v>38012</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>201</v>
+        <v>370884</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>394</v>
       </c>
       <c r="D29" s="15">
-        <v>1010301999</v>
+        <v>1010301005</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>88</v>
+        <v>393</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>11</v>
@@ -2385,16 +2435,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="16">
-        <v>38013</v>
+        <v>38010</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D30" s="15">
         <v>1010301999</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>11</v>
@@ -2410,19 +2460,19 @@
         <v>26</v>
       </c>
       <c r="B31" s="16">
-        <v>37064</v>
+        <v>38011</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D31" s="15">
-        <v>1010301006</v>
+        <v>1010301999</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="7">
@@ -2435,16 +2485,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="16">
-        <v>37083</v>
+        <v>38012</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D32" s="15">
-        <v>1010301008</v>
+        <v>1010301999</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>11</v>
@@ -2460,16 +2510,16 @@
         <v>28</v>
       </c>
       <c r="B33" s="16">
-        <v>37082</v>
+        <v>38013</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D33" s="15">
-        <v>1010301008</v>
+        <v>1010301999</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>11</v>
@@ -2485,19 +2535,19 @@
         <v>29</v>
       </c>
       <c r="B34" s="16">
-        <v>38014</v>
+        <v>37064</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D34" s="15">
-        <v>1010301010</v>
+        <v>1010301006</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="7">
@@ -2510,19 +2560,19 @@
         <v>30</v>
       </c>
       <c r="B35" s="16">
-        <v>38015</v>
+        <v>37083</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D35" s="15">
-        <v>1010301010</v>
+        <v>1010301008</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="7">
@@ -2535,19 +2585,19 @@
         <v>31</v>
       </c>
       <c r="B36" s="16">
-        <v>38016</v>
+        <v>37082</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D36" s="15">
-        <v>1010301010</v>
+        <v>1010301008</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="7">
@@ -2560,19 +2610,19 @@
         <v>32</v>
       </c>
       <c r="B37" s="16">
-        <v>37375</v>
+        <v>38014</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D37" s="15">
-        <v>1010301999</v>
+        <v>1010301010</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="7">
@@ -2585,19 +2635,19 @@
         <v>33</v>
       </c>
       <c r="B38" s="16">
-        <v>37111</v>
+        <v>38015</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D38" s="15">
-        <v>1010301999</v>
+        <v>1010301010</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="7">
@@ -2610,21 +2660,21 @@
         <v>34</v>
       </c>
       <c r="B39" s="16">
-        <v>38042</v>
+        <v>38016</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="D39" s="15">
-        <v>1010301999</v>
+        <v>1010301010</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>369</v>
+        <v>88</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="G39" s="15"/>
       <c r="H39" s="7">
         <v>0</v>
       </c>
@@ -2635,17 +2685,19 @@
         <v>35</v>
       </c>
       <c r="B40" s="16">
-        <v>370865</v>
+        <v>370870</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="D40" s="15"/>
+        <v>376</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1010301010</v>
+      </c>
       <c r="E40" s="16" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="7">
@@ -2658,19 +2710,19 @@
         <v>36</v>
       </c>
       <c r="B41" s="16">
-        <v>37101</v>
+        <v>37375</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D41" s="15">
-        <v>1010301013</v>
+        <v>1010301999</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="7">
@@ -2683,19 +2735,19 @@
         <v>37</v>
       </c>
       <c r="B42" s="16">
-        <v>37100</v>
+        <v>37111</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D42" s="15">
-        <v>1010301013</v>
+        <v>1010301999</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="7">
@@ -2708,16 +2760,16 @@
         <v>38</v>
       </c>
       <c r="B43" s="16">
-        <v>370789</v>
+        <v>37101</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="D43" s="15">
-        <v>1010302001</v>
+        <v>1010301013</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>4</v>
@@ -2733,16 +2785,16 @@
         <v>39</v>
       </c>
       <c r="B44" s="16">
-        <v>37125</v>
+        <v>37100</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D44" s="15">
-        <v>1010302001</v>
+        <v>1010301013</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>4</v>
@@ -2758,19 +2810,19 @@
         <v>40</v>
       </c>
       <c r="B45" s="16">
-        <v>370787</v>
+        <v>370789</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="15">
         <v>1010302001</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="7">
@@ -2783,19 +2835,19 @@
         <v>41</v>
       </c>
       <c r="B46" s="16">
-        <v>37122</v>
+        <v>37125</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D46" s="15">
         <v>1010302001</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="7">
@@ -2808,19 +2860,19 @@
         <v>42</v>
       </c>
       <c r="B47" s="16">
-        <v>38017</v>
+        <v>370787</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="D47" s="15">
         <v>1010302001</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="7">
@@ -2833,19 +2885,19 @@
         <v>43</v>
       </c>
       <c r="B48" s="16">
-        <v>370788</v>
+        <v>37122</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="D48" s="15">
         <v>1010302001</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="7">
@@ -2858,19 +2910,19 @@
         <v>44</v>
       </c>
       <c r="B49" s="16">
-        <v>37121</v>
+        <v>38017</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D49" s="15">
         <v>1010302001</v>
       </c>
       <c r="E49" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="7">
@@ -2883,19 +2935,19 @@
         <v>45</v>
       </c>
       <c r="B50" s="16">
-        <v>38018</v>
+        <v>370788</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="D50" s="15">
         <v>1010302001</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="7">
@@ -2908,19 +2960,19 @@
         <v>46</v>
       </c>
       <c r="B51" s="16">
-        <v>370860</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>378</v>
+        <v>37121</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="D51" s="15">
-        <v>1010302005</v>
+        <v>1010302001</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>379</v>
+        <v>24</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="7">
@@ -2933,19 +2985,19 @@
         <v>47</v>
       </c>
       <c r="B52" s="16">
-        <v>370867</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>381</v>
+        <v>38018</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="D52" s="15">
-        <v>1010302005</v>
+        <v>1010302001</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="7">
@@ -2958,19 +3010,19 @@
         <v>48</v>
       </c>
       <c r="B53" s="16">
-        <v>37135</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>218</v>
+        <v>370871</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>377</v>
       </c>
       <c r="D53" s="15">
-        <v>1010301999</v>
+        <v>1010302005</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>30</v>
+        <v>344</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="7">
@@ -2983,19 +3035,19 @@
         <v>49</v>
       </c>
       <c r="B54" s="16">
-        <v>37138</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>219</v>
+        <v>370872</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="D54" s="15">
-        <v>1010301999</v>
+        <v>1010302005</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>31</v>
+        <v>345</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="7">
@@ -3008,19 +3060,19 @@
         <v>50</v>
       </c>
       <c r="B55" s="16">
-        <v>37382</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>220</v>
+        <v>370860</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="D55" s="15">
-        <v>1010301010</v>
+        <v>1010302005</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>122</v>
+        <v>338</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="7">
@@ -3033,19 +3085,19 @@
         <v>51</v>
       </c>
       <c r="B56" s="16">
-        <v>37383</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>221</v>
+        <v>370867</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="D56" s="15">
-        <v>1010301010</v>
+        <v>1010302005</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>123</v>
+        <v>339</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="7">
@@ -3058,19 +3110,19 @@
         <v>52</v>
       </c>
       <c r="B57" s="16">
-        <v>37384</v>
+        <v>37135</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D57" s="15">
-        <v>1010301010</v>
+        <v>1010301999</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>124</v>
+        <v>342</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="7">
@@ -3083,19 +3135,19 @@
         <v>53</v>
       </c>
       <c r="B58" s="16">
-        <v>37385</v>
+        <v>37138</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D58" s="15">
-        <v>1010301010</v>
+        <v>1010301999</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="7">
@@ -3108,16 +3160,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="16">
-        <v>370790</v>
+        <v>37382</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D59" s="15">
         <v>1010301010</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>4</v>
@@ -3133,16 +3185,16 @@
         <v>55</v>
       </c>
       <c r="B60" s="16">
-        <v>37386</v>
+        <v>37383</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D60" s="15">
         <v>1010301010</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>4</v>
@@ -3158,19 +3210,19 @@
         <v>56</v>
       </c>
       <c r="B61" s="16">
-        <v>38019</v>
+        <v>37384</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D61" s="15">
         <v>1010301010</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="7">
@@ -3183,19 +3235,19 @@
         <v>57</v>
       </c>
       <c r="B62" s="16">
-        <v>38020</v>
+        <v>37385</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D62" s="15">
         <v>1010301010</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="7">
@@ -3208,19 +3260,19 @@
         <v>58</v>
       </c>
       <c r="B63" s="16">
-        <v>38021</v>
+        <v>370790</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D63" s="15">
         <v>1010301010</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="7">
@@ -3233,19 +3285,19 @@
         <v>59</v>
       </c>
       <c r="B64" s="16">
-        <v>38022</v>
+        <v>37386</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D64" s="15">
         <v>1010301010</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="7">
@@ -3258,19 +3310,19 @@
         <v>60</v>
       </c>
       <c r="B65" s="16">
-        <v>38023</v>
+        <v>38019</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D65" s="15">
         <v>1010301010</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="7">
@@ -3283,19 +3335,19 @@
         <v>61</v>
       </c>
       <c r="B66" s="16">
-        <v>38024</v>
+        <v>38020</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D66" s="15">
         <v>1010301010</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="7">
@@ -3308,19 +3360,19 @@
         <v>62</v>
       </c>
       <c r="B67" s="16">
-        <v>38025</v>
+        <v>38021</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="D67" s="15">
         <v>1010301010</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>101</v>
+        <v>379</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G67" s="15"/>
       <c r="H67" s="7">
@@ -3333,19 +3385,19 @@
         <v>63</v>
       </c>
       <c r="B68" s="16">
-        <v>38026</v>
+        <v>38022</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D68" s="15">
         <v>1010301010</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>102</v>
+        <v>380</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="7">
@@ -3358,19 +3410,19 @@
         <v>64</v>
       </c>
       <c r="B69" s="16">
-        <v>37085</v>
+        <v>38023</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D69" s="15">
         <v>1010301010</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>128</v>
+        <v>346</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="7">
@@ -3383,19 +3435,19 @@
         <v>65</v>
       </c>
       <c r="B70" s="16">
-        <v>37373</v>
+        <v>38024</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D70" s="15">
         <v>1010301010</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>129</v>
+        <v>347</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="7">
@@ -3408,19 +3460,19 @@
         <v>66</v>
       </c>
       <c r="B71" s="16">
-        <v>370810</v>
+        <v>38025</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="D71" s="15">
-        <v>1010301006</v>
+        <v>1010301010</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="7">
@@ -3433,19 +3485,19 @@
         <v>67</v>
       </c>
       <c r="B72" s="16">
-        <v>37065</v>
+        <v>38026</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D72" s="15">
-        <v>1010301006</v>
+        <v>1010301010</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="7">
@@ -3458,16 +3510,16 @@
         <v>68</v>
       </c>
       <c r="B73" s="16">
-        <v>37061</v>
+        <v>37085</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D73" s="15">
-        <v>1010301006</v>
+        <v>1010301010</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>11</v>
@@ -3483,19 +3535,19 @@
         <v>69</v>
       </c>
       <c r="B74" s="16">
-        <v>370798</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>352</v>
+        <v>37373</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="D74" s="15">
-        <v>1010301006</v>
+        <v>1010301010</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="7">
@@ -3508,19 +3560,19 @@
         <v>70</v>
       </c>
       <c r="B75" s="16">
-        <v>37071</v>
+        <v>370810</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="D75" s="15">
         <v>1010301006</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="7">
@@ -3533,19 +3585,19 @@
         <v>71</v>
       </c>
       <c r="B76" s="16">
-        <v>370812</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>240</v>
+        <v>370798</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>322</v>
       </c>
       <c r="D76" s="15">
         <v>1010301006</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="7">
@@ -3558,19 +3610,19 @@
         <v>72</v>
       </c>
       <c r="B77" s="16">
-        <v>370813</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>241</v>
+        <v>370874</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>382</v>
       </c>
       <c r="D77" s="15">
         <v>1010301006</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>132</v>
+        <v>351</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="7">
@@ -3583,16 +3635,16 @@
         <v>73</v>
       </c>
       <c r="B78" s="16">
-        <v>38027</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>239</v>
+        <v>370875</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>384</v>
       </c>
       <c r="D78" s="15">
         <v>1010301006</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>4</v>
@@ -3608,19 +3660,19 @@
         <v>74</v>
       </c>
       <c r="B79" s="16">
-        <v>38028</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>242</v>
+        <v>370876</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>383</v>
       </c>
       <c r="D79" s="15">
         <v>1010301006</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="7">
@@ -3633,19 +3685,19 @@
         <v>75</v>
       </c>
       <c r="B80" s="16">
-        <v>38029</v>
+        <v>37071</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D80" s="15">
         <v>1010301006</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="7">
@@ -3658,19 +3710,19 @@
         <v>76</v>
       </c>
       <c r="B81" s="16">
-        <v>37063</v>
+        <v>370812</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D81" s="15">
         <v>1010301006</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="7">
@@ -3683,19 +3735,19 @@
         <v>77</v>
       </c>
       <c r="B82" s="16">
-        <v>370784</v>
+        <v>370813</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D82" s="15">
         <v>1010301006</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="7">
@@ -3708,19 +3760,19 @@
         <v>78</v>
       </c>
       <c r="B83" s="16">
-        <v>38030</v>
+        <v>38027</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D83" s="15">
         <v>1010301006</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>103</v>
+        <v>323</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="7">
@@ -3733,19 +3785,19 @@
         <v>79</v>
       </c>
       <c r="B84" s="16">
-        <v>38031</v>
+        <v>38028</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D84" s="15">
         <v>1010301006</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="7">
@@ -3758,19 +3810,19 @@
         <v>80</v>
       </c>
       <c r="B85" s="16">
-        <v>38032</v>
+        <v>37063</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D85" s="15">
         <v>1010301006</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="7">
@@ -3783,17 +3835,19 @@
         <v>81</v>
       </c>
       <c r="B86" s="16">
-        <v>370866</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D86" s="15"/>
+        <v>370784</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" s="15">
+        <v>1010301006</v>
+      </c>
       <c r="E86" s="16" t="s">
-        <v>372</v>
+        <v>124</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="7">
@@ -3806,19 +3860,19 @@
         <v>82</v>
       </c>
       <c r="B87" s="16">
-        <v>370861</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>356</v>
+        <v>38030</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="D87" s="15">
         <v>1010301006</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>355</v>
+        <v>95</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="7">
@@ -3831,19 +3885,19 @@
         <v>83</v>
       </c>
       <c r="B88" s="16">
-        <v>37062</v>
+        <v>38031</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D88" s="15">
         <v>1010301006</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>354</v>
+        <v>96</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="7">
@@ -3856,16 +3910,16 @@
         <v>84</v>
       </c>
       <c r="B89" s="16">
-        <v>370773</v>
+        <v>38032</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D89" s="15">
-        <v>1010301003</v>
+        <v>1010301006</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>4</v>
@@ -3881,19 +3935,19 @@
         <v>85</v>
       </c>
       <c r="B90" s="16">
-        <v>370782</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>252</v>
+        <v>370873</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="D90" s="15">
-        <v>1010301003</v>
+        <v>1010301006</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>136</v>
+        <v>352</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G90" s="15"/>
       <c r="H90" s="7">
@@ -3906,19 +3960,19 @@
         <v>86</v>
       </c>
       <c r="B91" s="16">
-        <v>370774</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>253</v>
+        <v>370861</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="D91" s="15">
-        <v>1010301003</v>
+        <v>1010301006</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="7">
@@ -3931,19 +3985,19 @@
         <v>87</v>
       </c>
       <c r="B92" s="16">
-        <v>37032</v>
+        <v>37062</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D92" s="15">
-        <v>1010301003</v>
+        <v>1010301006</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="7">
@@ -3956,19 +4010,19 @@
         <v>88</v>
       </c>
       <c r="B93" s="16">
-        <v>37078</v>
+        <v>370773</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D93" s="15">
-        <v>1010301007</v>
+        <v>1010301003</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="7">
@@ -3981,19 +4035,19 @@
         <v>89</v>
       </c>
       <c r="B94" s="16">
-        <v>37080</v>
+        <v>370782</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D94" s="15">
-        <v>1010301007</v>
+        <v>1010301003</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G94" s="15"/>
       <c r="H94" s="7">
@@ -4006,19 +4060,19 @@
         <v>90</v>
       </c>
       <c r="B95" s="16">
-        <v>37081</v>
+        <v>370774</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D95" s="15">
-        <v>1010301007</v>
+        <v>1010301003</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G95" s="15"/>
       <c r="H95" s="7">
@@ -4031,19 +4085,19 @@
         <v>91</v>
       </c>
       <c r="B96" s="16">
-        <v>370818</v>
+        <v>37032</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D96" s="15">
-        <v>1010301004</v>
+        <v>1010301003</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G96" s="15"/>
       <c r="H96" s="7">
@@ -4056,16 +4110,16 @@
         <v>92</v>
       </c>
       <c r="B97" s="16">
-        <v>38033</v>
+        <v>37078</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D97" s="15">
-        <v>1010301004</v>
+        <v>1010301007</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>11</v>
@@ -4081,19 +4135,19 @@
         <v>93</v>
       </c>
       <c r="B98" s="16">
-        <v>38034</v>
+        <v>37080</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D98" s="15">
-        <v>1010301001</v>
+        <v>1010301007</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="7">
@@ -4106,19 +4160,19 @@
         <v>94</v>
       </c>
       <c r="B99" s="16">
-        <v>38035</v>
+        <v>37081</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="D99" s="15">
-        <v>1010301999</v>
+        <v>1010301007</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="G99" s="15"/>
       <c r="H99" s="7">
@@ -4131,19 +4185,19 @@
         <v>95</v>
       </c>
       <c r="B100" s="16">
-        <v>38036</v>
+        <v>370818</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D100" s="15">
-        <v>1010301999</v>
+        <v>1010301004</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>358</v>
+        <v>130</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="G100" s="15"/>
       <c r="H100" s="7">
@@ -4156,19 +4210,19 @@
         <v>96</v>
       </c>
       <c r="B101" s="16">
-        <v>38037</v>
+        <v>38033</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D101" s="15">
-        <v>1010301999</v>
+        <v>1010301004</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G101" s="15"/>
       <c r="H101" s="7">
@@ -4181,19 +4235,19 @@
         <v>97</v>
       </c>
       <c r="B102" s="16">
-        <v>38038</v>
+        <v>38034</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="D102" s="15">
-        <v>1010301999</v>
+        <v>1010301001</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="G102" s="15"/>
       <c r="H102" s="7">
@@ -4206,19 +4260,19 @@
         <v>98</v>
       </c>
       <c r="B103" s="16">
-        <v>38039</v>
+        <v>38035</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D103" s="15">
         <v>1010301999</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="7">
@@ -4231,19 +4285,19 @@
         <v>99</v>
       </c>
       <c r="B104" s="16">
-        <v>38040</v>
+        <v>38036</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D104" s="15">
         <v>1010301999</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>24</v>
+        <v>328</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G104" s="15"/>
       <c r="H104" s="7">
@@ -4256,19 +4310,19 @@
         <v>100</v>
       </c>
       <c r="B105" s="16">
-        <v>38041</v>
+        <v>38037</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D105" s="15">
         <v>1010301999</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="7">
@@ -4281,10 +4335,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="16">
-        <v>370815</v>
+        <v>38038</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D106" s="15">
         <v>1010301999</v>
@@ -4293,7 +4347,7 @@
         <v>20</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G106" s="15"/>
       <c r="H106" s="7">
@@ -4306,19 +4360,19 @@
         <v>102</v>
       </c>
       <c r="B107" s="16">
-        <v>37008</v>
+        <v>38039</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="D107" s="15">
-        <v>1010301001</v>
+        <v>1010301999</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G107" s="15"/>
       <c r="H107" s="7">
@@ -4331,19 +4385,19 @@
         <v>103</v>
       </c>
       <c r="B108" s="16">
-        <v>370816</v>
+        <v>38040</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D108" s="15">
-        <v>1010301001</v>
+        <v>1010301999</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G108" s="15"/>
       <c r="H108" s="7">
@@ -4356,19 +4410,19 @@
         <v>104</v>
       </c>
       <c r="B109" s="16">
-        <v>37020</v>
+        <v>38041</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="D109" s="15">
-        <v>1010301001</v>
+        <v>1010301999</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G109" s="15"/>
       <c r="H109" s="7">
@@ -4381,19 +4435,19 @@
         <v>105</v>
       </c>
       <c r="B110" s="16">
-        <v>370862</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>273</v>
+        <v>370815</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="D110" s="15">
-        <v>1010301001</v>
+        <v>1010301999</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>357</v>
+        <v>19</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="7">
@@ -4406,19 +4460,19 @@
         <v>106</v>
       </c>
       <c r="B111" s="16">
-        <v>38044</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>274</v>
+        <v>370877</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>385</v>
       </c>
       <c r="D111" s="15">
-        <v>1010301001</v>
+        <v>1010301006</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>111</v>
+        <v>355</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="G111" s="15"/>
       <c r="H111" s="7">
@@ -4431,19 +4485,19 @@
         <v>107</v>
       </c>
       <c r="B112" s="16">
-        <v>370819</v>
+        <v>37008</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="D112" s="15">
         <v>1010301001</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="G112" s="15"/>
       <c r="H112" s="7">
@@ -4456,16 +4510,16 @@
         <v>108</v>
       </c>
       <c r="B113" s="16">
-        <v>37387</v>
+        <v>370816</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="D113" s="15">
         <v>1010301001</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>11</v>
@@ -4481,16 +4535,16 @@
         <v>109</v>
       </c>
       <c r="B114" s="16">
-        <v>37003</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>277</v>
+        <v>370862</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="D114" s="15">
         <v>1010301001</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>3</v>
+        <v>327</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>11</v>
@@ -4506,19 +4560,19 @@
         <v>110</v>
       </c>
       <c r="B115" s="16">
-        <v>37379</v>
+        <v>38044</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="D115" s="15">
-        <v>1010301999</v>
+        <v>1010301001</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="7">
@@ -4531,19 +4585,19 @@
         <v>111</v>
       </c>
       <c r="B116" s="16">
-        <v>37099</v>
+        <v>370819</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D116" s="15">
-        <v>1010301999</v>
+        <v>1010301001</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="7">
@@ -4556,16 +4610,16 @@
         <v>112</v>
       </c>
       <c r="B117" s="16">
-        <v>37098</v>
+        <v>37387</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D117" s="15">
-        <v>1010301999</v>
+        <v>1010301001</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F117" s="15" t="s">
         <v>11</v>
@@ -4581,19 +4635,19 @@
         <v>113</v>
       </c>
       <c r="B118" s="16">
-        <v>38045</v>
+        <v>37003</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="D118" s="15">
-        <v>1010301999</v>
+        <v>1010301001</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G118" s="15"/>
       <c r="H118" s="7">
@@ -4606,19 +4660,19 @@
         <v>114</v>
       </c>
       <c r="B119" s="16">
-        <v>38046</v>
+        <v>37379</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="D119" s="15">
         <v>1010301999</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G119" s="15"/>
       <c r="H119" s="7">
@@ -4631,16 +4685,16 @@
         <v>115</v>
       </c>
       <c r="B120" s="16">
-        <v>37323</v>
+        <v>37099</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="D120" s="15">
         <v>1010301999</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>11</v>
@@ -4656,16 +4710,16 @@
         <v>116</v>
       </c>
       <c r="B121" s="16">
-        <v>37025</v>
+        <v>37098</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D121" s="15">
         <v>1010301999</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="F121" s="15" t="s">
         <v>11</v>
@@ -4681,19 +4735,19 @@
         <v>117</v>
       </c>
       <c r="B122" s="16">
-        <v>370805</v>
+        <v>38045</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D122" s="15">
-        <v>1010301004</v>
+        <v>1010301999</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G122" s="15"/>
       <c r="H122" s="7">
@@ -4706,19 +4760,19 @@
         <v>118</v>
       </c>
       <c r="B123" s="16">
-        <v>37046</v>
+        <v>38046</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D123" s="15">
-        <v>1010301004</v>
+        <v>1010301999</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G123" s="15"/>
       <c r="H123" s="7">
@@ -4726,11 +4780,111 @@
       </c>
       <c r="I123" s="8"/>
     </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="15">
+        <v>119</v>
+      </c>
+      <c r="B124" s="16">
+        <v>37323</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D124" s="15">
+        <v>1010301999</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="15"/>
+      <c r="H124" s="7">
+        <v>0</v>
+      </c>
+      <c r="I124" s="8"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="15">
+        <v>120</v>
+      </c>
+      <c r="B125" s="16">
+        <v>37025</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D125" s="15">
+        <v>1010301999</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="15"/>
+      <c r="H125" s="7">
+        <v>0</v>
+      </c>
+      <c r="I125" s="8"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="15">
+        <v>121</v>
+      </c>
+      <c r="B126" s="16">
+        <v>370805</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D126" s="15">
+        <v>1010301004</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="15"/>
+      <c r="H126" s="7">
+        <v>0</v>
+      </c>
+      <c r="I126" s="8"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="15">
+        <v>122</v>
+      </c>
+      <c r="B127" s="16">
+        <v>37046</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D127" s="15">
+        <v>1010301004</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="15"/>
+      <c r="H127" s="7">
+        <v>0</v>
+      </c>
+      <c r="I127" s="8"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5uqNOGq9FQE/+AEEMsHwCD+leX4vhdgdHbZ0QsLJG2husIL1F9mhA+eRkV+IsTtiiZIST3cDNva4qMjy87wlpQ==" saltValue="ZTETuiLtcvaIZrHTEKznRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A5:G48" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G122">
-      <sortCondition ref="E5:E48"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1Sbo3YagiTJWAoaVWOT1aJnYUPhvzQ+7ye33feC9dzfyHceMzaHWbNEL7yUcU1Io65afaHSQrJuh02xrQldMVQ==" saltValue="TG8w3UIRaVMBiVBiNC6yGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A5:G50" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G124">
+      <sortCondition ref="E5:E50"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
@@ -4738,7 +4892,7 @@
     <mergeCell ref="C4:I4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1 - 10000" sqref="H6:H123" xr:uid="{B22B4A9C-92FE-4D11-9D5F-68C69E9FBC18}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1 - 10000" sqref="H6:H127" xr:uid="{46CE24DB-C470-49BA-B412-A26F526200C8}">
       <formula1>1</formula1>
       <formula2>10000</formula2>
     </dataValidation>
@@ -4750,17 +4904,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53612C0-DDF2-4350-AF4D-75C247024156}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="45.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" style="9" customWidth="1"/>
@@ -4772,21 +4926,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.95" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="A1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="11">
@@ -4801,11 +4955,11 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4816,46 +4970,46 @@
     </row>
     <row r="4" spans="1:10" ht="58.8" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="C4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="26.4">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>2</v>
@@ -4869,13 +5023,13 @@
         <v>37280</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D6" s="15">
         <v>1010306010</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>13</v>
@@ -4895,13 +5049,13 @@
         <v>37282</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D7" s="15">
         <v>1010306010</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>116</v>
+        <v>392</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>13</v>
@@ -4920,13 +5074,13 @@
         <v>37239</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D8" s="15">
         <v>1010304010</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>49</v>
+        <v>356</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>11</v>
@@ -4942,96 +5096,94 @@
         <v>4</v>
       </c>
       <c r="B9" s="16">
-        <v>38047</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>154</v>
+        <v>370878</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="D9" s="15">
-        <v>1010304004</v>
+        <v>1010304010</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="15">
         <v>5</v>
       </c>
       <c r="B10" s="16">
-        <v>370807</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>155</v>
+        <v>370879</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>387</v>
       </c>
       <c r="D10" s="15">
         <v>1010304004</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>150</v>
+        <v>358</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="15">
         <v>6</v>
       </c>
       <c r="B11" s="16">
-        <v>370834</v>
-      </c>
-      <c r="C11" s="15" t="str">
-        <f t="shared" ref="C11:C16" si="0">_xlfn.CONCAT(D11,B11)</f>
-        <v>1010304004370834</v>
+        <v>370880</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>388</v>
       </c>
       <c r="D11" s="15">
         <v>1010304004</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="15">
         <v>7</v>
       </c>
       <c r="B12" s="16">
-        <v>370835</v>
-      </c>
-      <c r="C12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>1010304004370835</v>
+        <v>370807</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="D12" s="15">
         <v>1010304004</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="7">
@@ -5044,17 +5196,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="16">
-        <v>37407</v>
+        <v>370834</v>
       </c>
       <c r="C13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>101030400437407</v>
+        <f t="shared" ref="C13:C18" si="0">_xlfn.CONCAT(D13,B13)</f>
+        <v>1010304004370834</v>
       </c>
       <c r="D13" s="15">
         <v>1010304004</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>11</v>
@@ -5064,51 +5216,49 @@
         <v>0</v>
       </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="15">
         <v>9</v>
       </c>
       <c r="B14" s="16">
-        <v>37408</v>
+        <v>370835</v>
       </c>
       <c r="C14" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>101030400437408</v>
+        <v>1010304004370835</v>
       </c>
       <c r="D14" s="15">
         <v>1010304004</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="15">
         <v>10</v>
       </c>
       <c r="B15" s="16">
-        <v>370836</v>
+        <v>37407</v>
       </c>
       <c r="C15" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>1010304004370836</v>
+        <v>101030400437407</v>
       </c>
       <c r="D15" s="15">
         <v>1010304004</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>11</v>
@@ -5125,20 +5275,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="16">
-        <v>370837</v>
+        <v>37408</v>
       </c>
       <c r="C16" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>1010304004370837</v>
+        <v>101030400437408</v>
       </c>
       <c r="D16" s="15">
         <v>1010304004</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="7">
@@ -5152,16 +5302,17 @@
         <v>12</v>
       </c>
       <c r="B17" s="16">
-        <v>370853</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>347</v>
+        <v>370836</v>
+      </c>
+      <c r="C17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>1010304004370836</v>
       </c>
       <c r="D17" s="15">
         <v>1010304004</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>11</v>
@@ -5178,19 +5329,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="16">
-        <v>370854</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>347</v>
+        <v>370837</v>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>1010304004370837</v>
       </c>
       <c r="D18" s="15">
         <v>1010304004</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="7">
@@ -5204,17 +5356,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="16">
-        <v>37166</v>
-      </c>
-      <c r="C19" s="15" t="str">
-        <f t="shared" ref="C19:C26" si="1">_xlfn.CONCAT(D19,B19)</f>
-        <v>101030400437166</v>
+        <v>370853</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="D19" s="15">
         <v>1010304004</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>11</v>
@@ -5231,20 +5382,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="16">
-        <v>370838</v>
-      </c>
-      <c r="C20" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>1010304004370838</v>
+        <v>370854</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="D20" s="15">
         <v>1010304004</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="7">
@@ -5258,17 +5408,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="16">
-        <v>370839</v>
+        <v>37166</v>
       </c>
       <c r="C21" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>1010304004370839</v>
+        <f t="shared" ref="C21:C28" si="1">_xlfn.CONCAT(D21,B21)</f>
+        <v>101030400437166</v>
       </c>
       <c r="D21" s="15">
         <v>1010304004</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>11</v>
@@ -5285,20 +5435,20 @@
         <v>17</v>
       </c>
       <c r="B22" s="16">
-        <v>370840</v>
+        <v>370838</v>
       </c>
       <c r="C22" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1010304004370840</v>
+        <v>1010304004370838</v>
       </c>
       <c r="D22" s="15">
         <v>1010304004</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="7">
@@ -5312,17 +5462,17 @@
         <v>18</v>
       </c>
       <c r="B23" s="16">
-        <v>370841</v>
+        <v>370839</v>
       </c>
       <c r="C23" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1010304004370841</v>
+        <v>1010304004370839</v>
       </c>
       <c r="D23" s="15">
         <v>1010304004</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>11</v>
@@ -5339,20 +5489,20 @@
         <v>19</v>
       </c>
       <c r="B24" s="16">
-        <v>370842</v>
+        <v>370840</v>
       </c>
       <c r="C24" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1010304004370842</v>
+        <v>1010304004370840</v>
       </c>
       <c r="D24" s="15">
         <v>1010304004</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="7">
@@ -5366,17 +5516,17 @@
         <v>20</v>
       </c>
       <c r="B25" s="16">
-        <v>370843</v>
+        <v>370841</v>
       </c>
       <c r="C25" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1010304004370843</v>
+        <v>1010304004370841</v>
       </c>
       <c r="D25" s="15">
         <v>1010304004</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>11</v>
@@ -5393,20 +5543,20 @@
         <v>21</v>
       </c>
       <c r="B26" s="16">
-        <v>370844</v>
+        <v>370842</v>
       </c>
       <c r="C26" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1010304004370844</v>
+        <v>1010304004370842</v>
       </c>
       <c r="D26" s="15">
         <v>1010304004</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="7">
@@ -5420,16 +5570,17 @@
         <v>22</v>
       </c>
       <c r="B27" s="16">
-        <v>370822</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>375</v>
+        <v>370843</v>
+      </c>
+      <c r="C27" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1010304004370843</v>
       </c>
       <c r="D27" s="15">
         <v>1010304004</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>11</v>
@@ -5446,19 +5597,20 @@
         <v>23</v>
       </c>
       <c r="B28" s="16">
-        <v>370821</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>374</v>
+        <v>370844</v>
+      </c>
+      <c r="C28" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1010304004370844</v>
       </c>
       <c r="D28" s="15">
         <v>1010304004</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="7">
@@ -5475,13 +5627,13 @@
         <v>37199</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D29" s="15">
         <v>1010304004</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>11</v>
@@ -5501,13 +5653,13 @@
         <v>37200</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D30" s="15">
         <v>1010304004</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>11</v>
@@ -5527,13 +5679,13 @@
         <v>37201</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D31" s="15">
         <v>1010304004</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>11</v>
@@ -5553,13 +5705,13 @@
         <v>37156</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D32" s="15">
         <v>1010304004</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>11</v>
@@ -5579,13 +5731,13 @@
         <v>37214</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D33" s="15">
         <v>1010304004</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>11</v>
@@ -5612,7 +5764,7 @@
         <v>1010304004</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>11</v>
@@ -5639,10 +5791,10 @@
         <v>1010304004</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="7">
@@ -5666,7 +5818,7 @@
         <v>1010304004</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>11</v>
@@ -5693,7 +5845,7 @@
         <v>1010304004</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>13</v>
@@ -5720,7 +5872,7 @@
         <v>1010304004</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>11</v>
@@ -5747,7 +5899,7 @@
         <v>1010304004</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>308</v>
+        <v>368</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>11</v>
@@ -5774,7 +5926,7 @@
         <v>1010304004</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>309</v>
+        <v>369</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>11</v>
@@ -5801,7 +5953,7 @@
         <v>1010304004</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>11</v>
@@ -5828,7 +5980,7 @@
         <v>1010304004</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>11</v>
@@ -5855,10 +6007,10 @@
         <v>1010304004</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="7">
@@ -5875,13 +6027,13 @@
         <v>37217</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D44" s="15">
         <v>1010304004</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>11</v>
@@ -5901,13 +6053,13 @@
         <v>37218</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D45" s="15">
         <v>1010304004</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>11</v>
@@ -5934,7 +6086,7 @@
         <v>1010304004</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>11</v>
@@ -5961,10 +6113,10 @@
         <v>1010304004</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="7">
@@ -5988,7 +6140,7 @@
         <v>1010304004</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>11</v>
@@ -6015,10 +6167,10 @@
         <v>1010304004</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="7">
@@ -6042,7 +6194,7 @@
         <v>1010304004</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>11</v>
@@ -6069,10 +6221,10 @@
         <v>1010304004</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="7">
@@ -6089,13 +6241,13 @@
         <v>37202</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D52" s="15">
         <v>1010304004</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>11</v>
@@ -6122,7 +6274,7 @@
         <v>1010304004</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>11</v>
@@ -6149,10 +6301,10 @@
         <v>1010304004</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="7">
@@ -6176,7 +6328,7 @@
         <v>1010304004</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>11</v>
@@ -6203,10 +6355,10 @@
         <v>1010304004</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="7">
@@ -6223,13 +6375,13 @@
         <v>37185</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D57" s="15">
         <v>1010304004</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>11</v>
@@ -6256,7 +6408,7 @@
         <v>1010304004</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>11</v>
@@ -6283,10 +6435,10 @@
         <v>1010304004</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="7">
@@ -6310,7 +6462,7 @@
         <v>1010304004</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>11</v>
@@ -6336,10 +6488,10 @@
         <v>1010304004</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="7">
@@ -6362,7 +6514,7 @@
         <v>1010304004</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>11</v>
@@ -6389,10 +6541,10 @@
         <v>1010304004</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="7">
@@ -6409,13 +6561,13 @@
         <v>37178</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D64" s="15">
         <v>1010304004</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>11</v>
@@ -6435,13 +6587,13 @@
         <v>37165</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D65" s="15">
         <v>1010304004</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>11</v>
@@ -6468,7 +6620,7 @@
         <v>1010304004</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>11</v>
@@ -6495,10 +6647,10 @@
         <v>1010304004</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="7">
@@ -6515,13 +6667,13 @@
         <v>37229</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D68" s="15">
         <v>1010304004</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>11</v>
@@ -6548,7 +6700,7 @@
         <v>1010304004</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>11</v>
@@ -6575,10 +6727,10 @@
         <v>1010304004</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="7">
@@ -6595,13 +6747,13 @@
         <v>37150</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D71" s="15">
         <v>1010304004</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>11</v>
@@ -6621,13 +6773,13 @@
         <v>37145</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D72" s="15">
         <v>1010304004</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>11</v>
@@ -6654,7 +6806,7 @@
         <v>1010304004</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>11</v>
@@ -6681,7 +6833,7 @@
         <v>1010304004</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>11</v>
@@ -6708,7 +6860,7 @@
         <v>1010304004</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>11</v>
@@ -6735,7 +6887,7 @@
         <v>1010304004</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>11</v>
@@ -6762,7 +6914,7 @@
         <v>1010304004</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>11</v>
@@ -6789,7 +6941,7 @@
         <v>1010304004</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>11</v>
@@ -6816,7 +6968,7 @@
         <v>1010304004</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>11</v>
@@ -6843,7 +6995,7 @@
         <v>1010304004</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>11</v>
@@ -6863,13 +7015,13 @@
         <v>370808</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="D81" s="15">
         <v>1010304004</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>11</v>
@@ -6889,13 +7041,13 @@
         <v>37181</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D82" s="15">
         <v>1010304004</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>11</v>
@@ -6915,13 +7067,13 @@
         <v>37191</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D83" s="15">
         <v>1010304004</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>11</v>
@@ -6940,13 +7092,13 @@
         <v>37182</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D84" s="15">
         <v>1010304004</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>11</v>
@@ -6966,13 +7118,13 @@
         <v>37180</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D85" s="15">
         <v>1010304004</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>11</v>
@@ -6992,16 +7144,16 @@
         <v>40001</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="D86" s="15">
         <v>1010304006</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="7">
@@ -7018,16 +7170,16 @@
         <v>40002</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="D87" s="15">
         <v>1010304006</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="7">
@@ -7036,75 +7188,75 @@
       <c r="I87" s="8"/>
       <c r="J87" s="17"/>
     </row>
-    <row r="88" spans="1:10" s="12" customFormat="1" ht="13.2">
+    <row r="88" spans="1:10" ht="15" customHeight="1">
       <c r="A88" s="15">
         <v>83</v>
       </c>
       <c r="B88" s="16">
-        <v>37237</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>174</v>
+        <v>370881</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>390</v>
       </c>
       <c r="D88" s="15">
         <v>1010304006</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>363</v>
+        <v>373</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="7">
         <v>0</v>
       </c>
       <c r="I88" s="8"/>
-    </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1">
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="1:10" s="12" customFormat="1" ht="13.2">
       <c r="A89" s="15">
         <v>84</v>
       </c>
       <c r="B89" s="16">
-        <v>40000</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>364</v>
+        <v>37237</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="D89" s="15">
         <v>1010304006</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="G89" s="18"/>
       <c r="H89" s="7">
         <v>0</v>
       </c>
       <c r="I89" s="8"/>
-      <c r="J89" s="17"/>
     </row>
     <row r="90" spans="1:10" s="12" customFormat="1" ht="13.2">
       <c r="A90" s="15">
         <v>85</v>
       </c>
       <c r="B90" s="16">
-        <v>37236</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>175</v>
+        <v>370882</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>389</v>
       </c>
       <c r="D90" s="15">
         <v>1010304006</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>363</v>
+        <v>371</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="G90" s="18"/>
       <c r="H90" s="7">
@@ -7112,22 +7264,99 @@
       </c>
       <c r="I90" s="8"/>
     </row>
+    <row r="91" spans="1:10" ht="15" customHeight="1">
+      <c r="A91" s="15">
+        <v>86</v>
+      </c>
+      <c r="B91" s="16">
+        <v>40000</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1010304006</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="18"/>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="8"/>
+      <c r="J91" s="17"/>
+    </row>
+    <row r="92" spans="1:10" ht="15" customHeight="1">
+      <c r="A92" s="15">
+        <v>87</v>
+      </c>
+      <c r="B92" s="16">
+        <v>370883</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="D92" s="15">
+        <v>1010304006</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="18"/>
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="12"/>
+    </row>
+    <row r="93" spans="1:10" s="12" customFormat="1" ht="13.2">
+      <c r="A93" s="15">
+        <v>88</v>
+      </c>
+      <c r="B93" s="16">
+        <v>37236</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" s="15">
+        <v>1010304006</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="18"/>
+      <c r="H93" s="7">
+        <v>0</v>
+      </c>
+      <c r="I93" s="8"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vrgiheCkGlXAIT+LJHhigVhVEl/djVEM2muSuU/7bk1dvjXtL9a3KPlo6TqSF6ak56AYKWSJzhT24AeaFgKuxQ==" saltValue="h0M0sTBOVXsVl1aCvr30PA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wN6/UzHf3EjP0vnuD7r722YAPO0yS3zCVoWodM5zQRzDerCYm+w/hJDwputuE+87lU8+jB97tjSPNu7z/0OTOA==" saltValue="ImlPHR3ZI94NC4wseleNQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A5:I83" xr:uid="{C53612C0-DDF2-4350-AF4D-75C247024156}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I90">
       <sortCondition ref="E5:E83"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:H80">
-    <sortCondition ref="E13:E80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:H80">
+    <sortCondition ref="E15:E80"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C4:I4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1 - 10000" sqref="H6:H90" xr:uid="{05F925E5-B2E1-461C-B428-F98D458C2F4D}">
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Salah !" error="Hanya dapat diisi dengan angka dari 1 - 10000" sqref="H6:H93" xr:uid="{05F925E5-B2E1-461C-B428-F98D458C2F4D}">
       <formula1>1</formula1>
       <formula2>10000</formula2>
     </dataValidation>
